--- a/output671.xlsx
+++ b/output671.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.9982277939901809</v>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1.996455587980362</v>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>2.994683381970543</v>
       </c>
       <c r="B5" t="n">
-        <v>70</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>3.992911175960724</v>
       </c>
       <c r="B6" t="n">
-        <v>89</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>4.991138969950905</v>
       </c>
       <c r="B7" t="n">
-        <v>92</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>5.989366763941085</v>
       </c>
       <c r="B8" t="n">
-        <v>98</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>6.987594557931266</v>
       </c>
       <c r="B9" t="n">
-        <v>101</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>7.985822351921447</v>
       </c>
       <c r="B10" t="n">
-        <v>120</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>8.984050145911628</v>
       </c>
       <c r="B11" t="n">
-        <v>123</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>9.98227793990181</v>
       </c>
       <c r="B12" t="n">
-        <v>125</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>10.98050573389199</v>
       </c>
       <c r="B13" t="n">
-        <v>134</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>11.97873352788217</v>
       </c>
       <c r="B14" t="n">
-        <v>135</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>12.97696132187235</v>
       </c>
       <c r="B15" t="n">
-        <v>136</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>13.97518911586253</v>
       </c>
       <c r="B16" t="n">
-        <v>138</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>14.97341690985271</v>
       </c>
       <c r="B17" t="n">
-        <v>150</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>15.97164470384289</v>
       </c>
       <c r="B18" t="n">
-        <v>151</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>16.96987249783308</v>
       </c>
       <c r="B19" t="n">
-        <v>151</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>17.96810029182326</v>
       </c>
       <c r="B20" t="n">
-        <v>165</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>18.96632808581344</v>
       </c>
       <c r="B21" t="n">
-        <v>165</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>19.96455587980362</v>
       </c>
       <c r="B22" t="n">
-        <v>166</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>20.9627836737938</v>
       </c>
       <c r="B23" t="n">
-        <v>167</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>21.96101146778398</v>
       </c>
       <c r="B24" t="n">
-        <v>168</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>22.95923926177416</v>
       </c>
       <c r="B25" t="n">
-        <v>172</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>23.95746705576434</v>
       </c>
       <c r="B26" t="n">
-        <v>179</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>24.95569484975452</v>
       </c>
       <c r="B27" t="n">
-        <v>189</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>25.9539226437447</v>
       </c>
       <c r="B28" t="n">
-        <v>190</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>26.95215043773489</v>
       </c>
       <c r="B29" t="n">
-        <v>191</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>27.95037823172506</v>
       </c>
       <c r="B30" t="n">
-        <v>191</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>28.94860602571525</v>
       </c>
       <c r="B31" t="n">
-        <v>192</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>29.94683381970543</v>
       </c>
       <c r="B32" t="n">
-        <v>193</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>30.94506161369561</v>
       </c>
       <c r="B33" t="n">
-        <v>198</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>31.94328940768579</v>
       </c>
       <c r="B34" t="n">
-        <v>202</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>32.94151720167597</v>
       </c>
       <c r="B35" t="n">
-        <v>203</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>33.93974499566615</v>
       </c>
       <c r="B36" t="n">
-        <v>204</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>34.93797278965634</v>
       </c>
       <c r="B37" t="n">
-        <v>211</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>35.93620058364651</v>
       </c>
       <c r="B38" t="n">
-        <v>212</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>36.93442837763669</v>
       </c>
       <c r="B39" t="n">
-        <v>217</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>37.93265617162687</v>
       </c>
       <c r="B40" t="n">
-        <v>219</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>38.93088396561706</v>
       </c>
       <c r="B41" t="n">
-        <v>227</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>39.92911175960724</v>
       </c>
       <c r="B42" t="n">
-        <v>227</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>40.92733955359742</v>
       </c>
       <c r="B43" t="n">
-        <v>227</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>41.9255673475876</v>
       </c>
       <c r="B44" t="n">
-        <v>228</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>42.92379514157778</v>
       </c>
       <c r="B45" t="n">
-        <v>229</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>43.92202293556796</v>
       </c>
       <c r="B46" t="n">
-        <v>230</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>44.92025072955814</v>
       </c>
       <c r="B47" t="n">
-        <v>240</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>45.91847852354832</v>
       </c>
       <c r="B48" t="n">
-        <v>241</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>46.91670631753851</v>
       </c>
       <c r="B49" t="n">
-        <v>242</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>47.91493411152868</v>
       </c>
       <c r="B50" t="n">
-        <v>242</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>48.91316190551886</v>
       </c>
       <c r="B51" t="n">
-        <v>244</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>49.91138969950904</v>
       </c>
       <c r="B52" t="n">
-        <v>245</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>50.90961749349923</v>
       </c>
       <c r="B53" t="n">
-        <v>246</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>51.90784528748941</v>
       </c>
       <c r="B54" t="n">
-        <v>248</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>52.90607308147959</v>
       </c>
       <c r="B55" t="n">
-        <v>249</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>53.90430087546977</v>
       </c>
       <c r="B56" t="n">
-        <v>250</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>54.90252866945995</v>
       </c>
       <c r="B57" t="n">
-        <v>261</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>55.90075646345013</v>
       </c>
       <c r="B58" t="n">
-        <v>261</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>56.89898425744031</v>
       </c>
       <c r="B59" t="n">
-        <v>262</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>57.89721205143049</v>
       </c>
       <c r="B60" t="n">
-        <v>262</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>58.89543984542068</v>
       </c>
       <c r="B61" t="n">
-        <v>263</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>59.89366763941086</v>
       </c>
       <c r="B62" t="n">
-        <v>263</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>60.89189543340103</v>
       </c>
       <c r="B63" t="n">
-        <v>264</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>61.89012322739121</v>
       </c>
       <c r="B64" t="n">
-        <v>265</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>62.8883510213814</v>
       </c>
       <c r="B65" t="n">
-        <v>265</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>63.88657881537158</v>
       </c>
       <c r="B66" t="n">
-        <v>266</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>64.88480660936176</v>
       </c>
       <c r="B67" t="n">
-        <v>275</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>65.88303440335194</v>
       </c>
       <c r="B68" t="n">
-        <v>275</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>66.88126219734212</v>
       </c>
       <c r="B69" t="n">
-        <v>276</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>67.87948999133231</v>
       </c>
       <c r="B70" t="n">
-        <v>276</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>68.87771778532249</v>
       </c>
       <c r="B71" t="n">
-        <v>277</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>69.87594557931267</v>
       </c>
       <c r="B72" t="n">
-        <v>277</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>70.87417337330284</v>
       </c>
       <c r="B73" t="n">
-        <v>278</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>71.87240116729302</v>
       </c>
       <c r="B74" t="n">
-        <v>278</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>72.8706289612832</v>
       </c>
       <c r="B75" t="n">
-        <v>286</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>73.86885675527338</v>
       </c>
       <c r="B76" t="n">
-        <v>287</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>74.86708454926357</v>
       </c>
       <c r="B77" t="n">
-        <v>287</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>75.86531234325375</v>
       </c>
       <c r="B78" t="n">
-        <v>288</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>76.86354013724393</v>
       </c>
       <c r="B79" t="n">
-        <v>288</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>77.86176793123411</v>
       </c>
       <c r="B80" t="n">
-        <v>288</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>78.85999572522429</v>
       </c>
       <c r="B81" t="n">
-        <v>289</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>79.85822351921448</v>
       </c>
       <c r="B82" t="n">
-        <v>289</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>80.85645131320466</v>
       </c>
       <c r="B83" t="n">
-        <v>295</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>81.85467910719484</v>
       </c>
       <c r="B84" t="n">
-        <v>296</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>82.85290690118502</v>
       </c>
       <c r="B85" t="n">
-        <v>296</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>83.85113469517519</v>
       </c>
       <c r="B86" t="n">
-        <v>296</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>84.84936248916537</v>
       </c>
       <c r="B87" t="n">
-        <v>297</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>85.84759028315555</v>
       </c>
       <c r="B88" t="n">
-        <v>297</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>86.84581807714574</v>
       </c>
       <c r="B89" t="n">
-        <v>304</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>87.84404587113592</v>
       </c>
       <c r="B90" t="n">
-        <v>304</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>88.8422736651261</v>
       </c>
       <c r="B91" t="n">
-        <v>304</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>89.84050145911628</v>
       </c>
       <c r="B92" t="n">
-        <v>304</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>90.83872925310646</v>
       </c>
       <c r="B93" t="n">
-        <v>305</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>91.83695704709665</v>
       </c>
       <c r="B94" t="n">
-        <v>305</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>92.83518484108683</v>
       </c>
       <c r="B95" t="n">
-        <v>313</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>93.83341263507701</v>
       </c>
       <c r="B96" t="n">
-        <v>314</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>94.83164042906719</v>
       </c>
       <c r="B97" t="n">
-        <v>314</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>95.82986822305736</v>
       </c>
       <c r="B98" t="n">
-        <v>314</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>96.82809601704754</v>
       </c>
       <c r="B99" t="n">
-        <v>315</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>97.82632381103772</v>
       </c>
       <c r="B100" t="n">
-        <v>315</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>98.82455160502791</v>
       </c>
       <c r="B101" t="n">
-        <v>316</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>99.82277939901809</v>
       </c>
       <c r="B102" t="n">
-        <v>317</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>100.8210071930083</v>
       </c>
       <c r="B103" t="n">
-        <v>317</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>101.8192349869985</v>
       </c>
       <c r="B104" t="n">
-        <v>333</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>102.8174627809886</v>
       </c>
       <c r="B105" t="n">
-        <v>333</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>103.8156905749788</v>
       </c>
       <c r="B106" t="n">
-        <v>333</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>104.813918368969</v>
       </c>
       <c r="B107" t="n">
-        <v>333</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>105.8121461629592</v>
       </c>
       <c r="B108" t="n">
-        <v>334</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>106.8103739569494</v>
       </c>
       <c r="B109" t="n">
-        <v>334</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>107.8086017509395</v>
       </c>
       <c r="B110" t="n">
-        <v>334</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>108.8068295449297</v>
       </c>
       <c r="B111" t="n">
-        <v>334</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>109.8050573389199</v>
       </c>
       <c r="B112" t="n">
-        <v>335</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>110.8032851329101</v>
       </c>
       <c r="B113" t="n">
-        <v>335</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>111.8015129269003</v>
       </c>
       <c r="B114" t="n">
-        <v>335</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>112.7997407208904</v>
       </c>
       <c r="B115" t="n">
-        <v>336</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>113.7979685148806</v>
       </c>
       <c r="B116" t="n">
-        <v>336</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>114.7961963088708</v>
       </c>
       <c r="B117" t="n">
-        <v>337</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>115.794424102861</v>
       </c>
       <c r="B118" t="n">
-        <v>337</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>116.7926518968512</v>
       </c>
       <c r="B119" t="n">
-        <v>338</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>117.7908796908414</v>
       </c>
       <c r="B120" t="n">
-        <v>338</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>118.7891074848315</v>
       </c>
       <c r="B121" t="n">
-        <v>339</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>119.7873352788217</v>
       </c>
       <c r="B122" t="n">
-        <v>339</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>120.7855630728119</v>
       </c>
       <c r="B123" t="n">
-        <v>341</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>121.7837908668021</v>
       </c>
       <c r="B124" t="n">
-        <v>357</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>122.7820186607922</v>
       </c>
       <c r="B125" t="n">
-        <v>358</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>123.7802464547824</v>
       </c>
       <c r="B126" t="n">
-        <v>359</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>124.7784742487726</v>
       </c>
       <c r="B127" t="n">
-        <v>359</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>125.7767020427628</v>
       </c>
       <c r="B128" t="n">
-        <v>360</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>126.774929836753</v>
       </c>
       <c r="B129" t="n">
-        <v>363</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>127.7731576307432</v>
       </c>
       <c r="B130" t="n">
-        <v>364</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>128.7713854247333</v>
       </c>
       <c r="B131" t="n">
-        <v>364</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>129.7696132187235</v>
       </c>
       <c r="B132" t="n">
-        <v>364</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>130.7678410127137</v>
       </c>
       <c r="B133" t="n">
-        <v>365</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>131.7660688067039</v>
       </c>
       <c r="B134" t="n">
-        <v>365</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>132.7642966006941</v>
       </c>
       <c r="B135" t="n">
-        <v>365</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>133.7625243946842</v>
       </c>
       <c r="B136" t="n">
-        <v>365</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>134.7607521886744</v>
       </c>
       <c r="B137" t="n">
-        <v>365</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>135.7589799826646</v>
       </c>
       <c r="B138" t="n">
-        <v>365</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>136.7572077766548</v>
       </c>
       <c r="B139" t="n">
-        <v>366</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>137.755435570645</v>
       </c>
       <c r="B140" t="n">
-        <v>366</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>138.7536633646351</v>
       </c>
       <c r="B141" t="n">
-        <v>366</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>139.7518911586253</v>
       </c>
       <c r="B142" t="n">
-        <v>366</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>140.7501189526155</v>
       </c>
       <c r="B143" t="n">
-        <v>366</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>141.7483467466057</v>
       </c>
       <c r="B144" t="n">
-        <v>366</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>142.7465745405959</v>
       </c>
       <c r="B145" t="n">
-        <v>367</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>143.744802334586</v>
       </c>
       <c r="B146" t="n">
-        <v>367</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>144.7430301285762</v>
       </c>
       <c r="B147" t="n">
-        <v>367</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>145.7412579225664</v>
       </c>
       <c r="B148" t="n">
-        <v>368</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>146.7394857165566</v>
       </c>
       <c r="B149" t="n">
-        <v>368</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>147.7377135105468</v>
       </c>
       <c r="B150" t="n">
-        <v>369</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>148.735941304537</v>
       </c>
       <c r="B151" t="n">
-        <v>376</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>149.7341690985271</v>
       </c>
       <c r="B152" t="n">
-        <v>376</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>150.7323968925173</v>
       </c>
       <c r="B153" t="n">
-        <v>376</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>151.7306246865075</v>
       </c>
       <c r="B154" t="n">
-        <v>376</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>152.7288524804977</v>
       </c>
       <c r="B155" t="n">
-        <v>376</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>153.7270802744879</v>
       </c>
       <c r="B156" t="n">
-        <v>377</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>154.725308068478</v>
       </c>
       <c r="B157" t="n">
-        <v>377</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>155.7235358624682</v>
       </c>
       <c r="B158" t="n">
-        <v>377</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>156.7217636564584</v>
       </c>
       <c r="B159" t="n">
-        <v>378</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>157.7199914504486</v>
       </c>
       <c r="B160" t="n">
-        <v>378</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>158.7182192444388</v>
       </c>
       <c r="B161" t="n">
-        <v>379</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>159.716447038429</v>
       </c>
       <c r="B162" t="n">
-        <v>380</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>160.7146748324191</v>
       </c>
       <c r="B163" t="n">
-        <v>381</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>161.7129026264093</v>
       </c>
       <c r="B164" t="n">
-        <v>382</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>162.7111304203995</v>
       </c>
       <c r="B165" t="n">
-        <v>382</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>163.7093582143897</v>
       </c>
       <c r="B166" t="n">
-        <v>383</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>164.7075860083798</v>
       </c>
       <c r="B167" t="n">
-        <v>385</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>165.70581380237</v>
       </c>
       <c r="B168" t="n">
-        <v>386</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>166.7040415963602</v>
       </c>
       <c r="B169" t="n">
-        <v>387</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>167.7022693903504</v>
       </c>
       <c r="B170" t="n">
-        <v>388</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>168.7004971843406</v>
       </c>
       <c r="B171" t="n">
-        <v>391</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>169.6987249783307</v>
       </c>
       <c r="B172" t="n">
-        <v>391</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>170.6969527723209</v>
       </c>
       <c r="B173" t="n">
-        <v>392</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>171.6951805663111</v>
       </c>
       <c r="B174" t="n">
-        <v>392</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>172.6934083603013</v>
       </c>
       <c r="B175" t="n">
-        <v>393</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>173.6916361542915</v>
       </c>
       <c r="B176" t="n">
-        <v>393</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>174.6898639482817</v>
       </c>
       <c r="B177" t="n">
-        <v>394</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>175.6880917422718</v>
       </c>
       <c r="B178" t="n">
-        <v>394</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>176.686319536262</v>
       </c>
       <c r="B179" t="n">
-        <v>395</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>177.6845473302522</v>
       </c>
       <c r="B180" t="n">
-        <v>396</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>178.6827751242424</v>
       </c>
       <c r="B181" t="n">
-        <v>397</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>179.6810029182326</v>
       </c>
       <c r="B182" t="n">
-        <v>399</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>180.6792307122227</v>
       </c>
       <c r="B183" t="n">
-        <v>399</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>181.6774585062129</v>
       </c>
       <c r="B184" t="n">
-        <v>400</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>182.6756863002031</v>
       </c>
       <c r="B185" t="n">
-        <v>409</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>183.6739140941933</v>
       </c>
       <c r="B186" t="n">
-        <v>409</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>184.6721418881835</v>
       </c>
       <c r="B187" t="n">
-        <v>409</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>185.6703696821737</v>
       </c>
       <c r="B188" t="n">
-        <v>409</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>186.6685974761638</v>
       </c>
       <c r="B189" t="n">
-        <v>409</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>187.666825270154</v>
       </c>
       <c r="B190" t="n">
-        <v>409</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>188.6650530641442</v>
       </c>
       <c r="B191" t="n">
-        <v>409</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>189.6632808581344</v>
       </c>
       <c r="B192" t="n">
-        <v>410</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>190.6615086521246</v>
       </c>
       <c r="B193" t="n">
-        <v>410</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>191.6597364461147</v>
       </c>
       <c r="B194" t="n">
-        <v>410</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>192.6579642401049</v>
       </c>
       <c r="B195" t="n">
-        <v>410</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>193.6561920340951</v>
       </c>
       <c r="B196" t="n">
-        <v>410</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>194.6544198280853</v>
       </c>
       <c r="B197" t="n">
-        <v>410</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>195.6526476220754</v>
       </c>
       <c r="B198" t="n">
-        <v>411</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>196.6508754160656</v>
       </c>
       <c r="B199" t="n">
-        <v>411</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>197.6491032100558</v>
       </c>
       <c r="B200" t="n">
-        <v>411</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>198.647331004046</v>
       </c>
       <c r="B201" t="n">
-        <v>411</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>199.6455587980362</v>
       </c>
       <c r="B202" t="n">
-        <v>412</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>200.6437865920264</v>
       </c>
       <c r="B203" t="n">
-        <v>412</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>201.6420143860165</v>
       </c>
       <c r="B204" t="n">
-        <v>413</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>202.6402421800067</v>
       </c>
       <c r="B205" t="n">
-        <v>414</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>203.6384699739969</v>
       </c>
       <c r="B206" t="n">
-        <v>415</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>204.6366977679871</v>
       </c>
       <c r="B207" t="n">
-        <v>416</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>205.6349255619773</v>
       </c>
       <c r="B208" t="n">
-        <v>423</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>206.6331533559674</v>
       </c>
       <c r="B209" t="n">
-        <v>423</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>207.6313811499576</v>
       </c>
       <c r="B210" t="n">
-        <v>423</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>208.6296089439478</v>
       </c>
       <c r="B211" t="n">
-        <v>424</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>209.627836737938</v>
       </c>
       <c r="B212" t="n">
-        <v>424</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>210.6260645319282</v>
       </c>
       <c r="B213" t="n">
-        <v>424</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>211.6242923259184</v>
       </c>
       <c r="B214" t="n">
-        <v>425</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>212.6225201199085</v>
       </c>
       <c r="B215" t="n">
-        <v>425</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>213.6207479138987</v>
       </c>
       <c r="B216" t="n">
-        <v>425</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>214.6189757078889</v>
       </c>
       <c r="B217" t="n">
-        <v>426</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>215.6172035018791</v>
       </c>
       <c r="B218" t="n">
-        <v>426</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>216.6154312958693</v>
       </c>
       <c r="B219" t="n">
-        <v>426</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>217.6136590898594</v>
       </c>
       <c r="B220" t="n">
-        <v>427</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>218.6118868838496</v>
       </c>
       <c r="B221" t="n">
-        <v>427</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>219.6101146778398</v>
       </c>
       <c r="B222" t="n">
-        <v>427</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>220.60834247183</v>
       </c>
       <c r="B223" t="n">
-        <v>428</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>221.6065702658202</v>
       </c>
       <c r="B224" t="n">
-        <v>428</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>222.6047980598103</v>
       </c>
       <c r="B225" t="n">
-        <v>428</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>223.6030258538005</v>
       </c>
       <c r="B226" t="n">
-        <v>429</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>224.6012536477907</v>
       </c>
       <c r="B227" t="n">
-        <v>430</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>225.5994814417809</v>
       </c>
       <c r="B228" t="n">
-        <v>431</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>226.5977092357711</v>
       </c>
       <c r="B229" t="n">
-        <v>431</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>227.5959370297612</v>
       </c>
       <c r="B230" t="n">
-        <v>431</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>228.5941648237514</v>
       </c>
       <c r="B231" t="n">
-        <v>432</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>229.5923926177416</v>
       </c>
       <c r="B232" t="n">
-        <v>433</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>230.5906204117318</v>
       </c>
       <c r="B233" t="n">
-        <v>434</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>231.588848205722</v>
       </c>
       <c r="B234" t="n">
-        <v>435</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>232.5870759997121</v>
       </c>
       <c r="B235" t="n">
-        <v>435</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>233.5853037937023</v>
       </c>
       <c r="B236" t="n">
-        <v>436</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>234.5835315876925</v>
       </c>
       <c r="B237" t="n">
-        <v>436</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>235.5817593816827</v>
       </c>
       <c r="B238" t="n">
-        <v>437</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>236.5799871756729</v>
       </c>
       <c r="B239" t="n">
-        <v>438</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>237.5782149696631</v>
       </c>
       <c r="B240" t="n">
-        <v>439</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>238.5764427636532</v>
       </c>
       <c r="B241" t="n">
-        <v>439</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>239.5746705576434</v>
       </c>
       <c r="B242" t="n">
-        <v>440</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>240.5728983516336</v>
       </c>
       <c r="B243" t="n">
-        <v>440</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>241.5711261456238</v>
       </c>
       <c r="B244" t="n">
-        <v>441</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>242.569353939614</v>
       </c>
       <c r="B245" t="n">
-        <v>441</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>243.5675817336041</v>
       </c>
       <c r="B246" t="n">
-        <v>441</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>244.5658095275943</v>
       </c>
       <c r="B247" t="n">
-        <v>442</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>245.5640373215845</v>
       </c>
       <c r="B248" t="n">
-        <v>442</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>246.5622651155747</v>
       </c>
       <c r="B249" t="n">
-        <v>443</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>247.5604929095649</v>
       </c>
       <c r="B250" t="n">
-        <v>444</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>248.5587207035551</v>
       </c>
       <c r="B251" t="n">
-        <v>446</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>249.5569484975452</v>
       </c>
       <c r="B252" t="n">
-        <v>449</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>250.5551762915354</v>
       </c>
       <c r="B253" t="n">
-        <v>451</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>251.5534040855256</v>
       </c>
       <c r="B254" t="n">
-        <v>452</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>252.5516318795158</v>
       </c>
       <c r="B255" t="n">
-        <v>453</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>253.5498596735059</v>
       </c>
       <c r="B256" t="n">
-        <v>454</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>254.5480874674961</v>
       </c>
       <c r="B257" t="n">
-        <v>455</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>255.5463152614863</v>
       </c>
       <c r="B258" t="n">
-        <v>455</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>256.5445430554765</v>
       </c>
       <c r="B259" t="n">
-        <v>456</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>257.5427708494666</v>
       </c>
       <c r="B260" t="n">
-        <v>456</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>258.5409986434569</v>
       </c>
       <c r="B261" t="n">
-        <v>456</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>259.539226437447</v>
       </c>
       <c r="B262" t="n">
-        <v>457</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>260.5374542314372</v>
       </c>
       <c r="B263" t="n">
-        <v>457</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>261.5356820254274</v>
       </c>
       <c r="B264" t="n">
-        <v>457</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>262.5339098194176</v>
       </c>
       <c r="B265" t="n">
-        <v>458</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>263.5321376134078</v>
       </c>
       <c r="B266" t="n">
-        <v>458</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>264.5303654073979</v>
       </c>
       <c r="B267" t="n">
-        <v>458</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>265.5285932013881</v>
       </c>
       <c r="B268" t="n">
-        <v>459</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>266.5268209953783</v>
       </c>
       <c r="B269" t="n">
-        <v>459</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>267.5250487893685</v>
       </c>
       <c r="B270" t="n">
-        <v>459</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>268.5232765833587</v>
       </c>
       <c r="B271" t="n">
-        <v>460</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>269.5215043773488</v>
       </c>
       <c r="B272" t="n">
-        <v>460</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>270.519732171339</v>
       </c>
       <c r="B273" t="n">
-        <v>460</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>271.5179599653292</v>
       </c>
       <c r="B274" t="n">
-        <v>460</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>272.5161877593194</v>
       </c>
       <c r="B275" t="n">
-        <v>461</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>273.5144155533096</v>
       </c>
       <c r="B276" t="n">
-        <v>461</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>274.5126433472997</v>
       </c>
       <c r="B277" t="n">
-        <v>461</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>275.51087114129</v>
       </c>
       <c r="B278" t="n">
-        <v>462</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>276.5090989352801</v>
       </c>
       <c r="B279" t="n">
-        <v>463</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>277.5073267292703</v>
       </c>
       <c r="B280" t="n">
-        <v>464</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>278.5055545232605</v>
       </c>
       <c r="B281" t="n">
-        <v>464</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>279.5037823172507</v>
       </c>
       <c r="B282" t="n">
-        <v>465</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>280.5020101112408</v>
       </c>
       <c r="B283" t="n">
-        <v>465</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>281.500237905231</v>
       </c>
       <c r="B284" t="n">
-        <v>465</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>282.4984656992212</v>
       </c>
       <c r="B285" t="n">
-        <v>466</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>283.4966934932114</v>
       </c>
       <c r="B286" t="n">
-        <v>475</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>284.4949212872016</v>
       </c>
       <c r="B287" t="n">
-        <v>475</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>285.4931490811917</v>
       </c>
       <c r="B288" t="n">
-        <v>475</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>286.4913768751819</v>
       </c>
       <c r="B289" t="n">
-        <v>475</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>287.4896046691721</v>
       </c>
       <c r="B290" t="n">
-        <v>475</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>288.4878324631623</v>
       </c>
       <c r="B291" t="n">
-        <v>475</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>289.4860602571525</v>
       </c>
       <c r="B292" t="n">
-        <v>476</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>290.4842880511426</v>
       </c>
       <c r="B293" t="n">
-        <v>476</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>291.4825158451328</v>
       </c>
       <c r="B294" t="n">
-        <v>476</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>292.480743639123</v>
       </c>
       <c r="B295" t="n">
-        <v>476</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>293.4789714331132</v>
       </c>
       <c r="B296" t="n">
-        <v>476</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>294.4771992271034</v>
       </c>
       <c r="B297" t="n">
-        <v>476</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>295.4754270210935</v>
       </c>
       <c r="B298" t="n">
-        <v>477</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>296.4736548150837</v>
       </c>
       <c r="B299" t="n">
-        <v>477</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>297.4718826090739</v>
       </c>
       <c r="B300" t="n">
-        <v>477</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>298.4701104030641</v>
       </c>
       <c r="B301" t="n">
-        <v>477</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>299.4683381970543</v>
       </c>
       <c r="B302" t="n">
-        <v>478</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>300.4665659910444</v>
       </c>
       <c r="B303" t="n">
-        <v>478</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>301.4647937850347</v>
       </c>
       <c r="B304" t="n">
-        <v>478</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>302.4630215790248</v>
       </c>
       <c r="B305" t="n">
-        <v>478</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>303.461249373015</v>
       </c>
       <c r="B306" t="n">
-        <v>479</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>304.4594771670052</v>
       </c>
       <c r="B307" t="n">
-        <v>479</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>305.4577049609954</v>
       </c>
       <c r="B308" t="n">
-        <v>480</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>306.4559327549856</v>
       </c>
       <c r="B309" t="n">
-        <v>481</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>307.4541605489757</v>
       </c>
       <c r="B310" t="n">
-        <v>481</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>308.4523883429659</v>
       </c>
       <c r="B311" t="n">
-        <v>482</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>309.4506161369561</v>
       </c>
       <c r="B312" t="n">
-        <v>482</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>310.4488439309463</v>
       </c>
       <c r="B313" t="n">
-        <v>482</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>311.4470717249364</v>
       </c>
       <c r="B314" t="n">
-        <v>483</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>312.4452995189266</v>
       </c>
       <c r="B315" t="n">
-        <v>483</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>313.4435273129168</v>
       </c>
       <c r="B316" t="n">
-        <v>484</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>314.441755106907</v>
       </c>
       <c r="B317" t="n">
-        <v>485</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>315.4399829008972</v>
       </c>
       <c r="B318" t="n">
-        <v>491</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>316.4382106948873</v>
       </c>
       <c r="B319" t="n">
-        <v>492</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>317.4364384888775</v>
       </c>
       <c r="B320" t="n">
-        <v>492</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>318.4346662828677</v>
       </c>
       <c r="B321" t="n">
-        <v>492</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>319.4328940768579</v>
       </c>
       <c r="B322" t="n">
-        <v>492</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>320.4311218708481</v>
       </c>
       <c r="B323" t="n">
-        <v>492</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>321.4293496648382</v>
       </c>
       <c r="B324" t="n">
-        <v>492</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>322.4275774588284</v>
       </c>
       <c r="B325" t="n">
-        <v>492</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>323.4258052528186</v>
       </c>
       <c r="B326" t="n">
-        <v>493</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>324.4240330468088</v>
       </c>
       <c r="B327" t="n">
-        <v>493</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>325.422260840799</v>
       </c>
       <c r="B328" t="n">
-        <v>493</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>326.4204886347891</v>
       </c>
       <c r="B329" t="n">
-        <v>493</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>327.4187164287794</v>
       </c>
       <c r="B330" t="n">
-        <v>493</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>328.4169442227695</v>
       </c>
       <c r="B331" t="n">
-        <v>493</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>329.4151720167597</v>
       </c>
       <c r="B332" t="n">
-        <v>494</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>330.4133998107499</v>
       </c>
       <c r="B333" t="n">
-        <v>494</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>331.4116276047401</v>
       </c>
       <c r="B334" t="n">
-        <v>494</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>332.4098553987303</v>
       </c>
       <c r="B335" t="n">
-        <v>494</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>333.4080831927204</v>
       </c>
       <c r="B336" t="n">
-        <v>495</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>334.4063109867106</v>
       </c>
       <c r="B337" t="n">
-        <v>495</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>335.4045387807008</v>
       </c>
       <c r="B338" t="n">
-        <v>496</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>336.402766574691</v>
       </c>
       <c r="B339" t="n">
-        <v>496</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>337.4009943686812</v>
       </c>
       <c r="B340" t="n">
-        <v>496</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>338.3992221626713</v>
       </c>
       <c r="B341" t="n">
-        <v>497</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>339.3974499566615</v>
       </c>
       <c r="B342" t="n">
-        <v>497</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>340.3956777506517</v>
       </c>
       <c r="B343" t="n">
-        <v>507</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>341.3939055446419</v>
       </c>
       <c r="B344" t="n">
-        <v>508</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>342.392133338632</v>
       </c>
       <c r="B345" t="n">
-        <v>508</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>343.3903611326222</v>
       </c>
       <c r="B346" t="n">
-        <v>509</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>344.3885889266124</v>
       </c>
       <c r="B347" t="n">
-        <v>509</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>345.3868167206026</v>
       </c>
       <c r="B348" t="n">
-        <v>509</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>346.3850445145928</v>
       </c>
       <c r="B349" t="n">
-        <v>510</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>347.3832723085829</v>
       </c>
       <c r="B350" t="n">
-        <v>510</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>348.3815001025731</v>
       </c>
       <c r="B351" t="n">
-        <v>511</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>349.3797278965633</v>
       </c>
       <c r="B352" t="n">
-        <v>511</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>350.3779556905535</v>
       </c>
       <c r="B353" t="n">
-        <v>511</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>351.3761834845437</v>
       </c>
       <c r="B354" t="n">
-        <v>512</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>352.3744112785338</v>
       </c>
       <c r="B355" t="n">
-        <v>512</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>353.3726390725241</v>
       </c>
       <c r="B356" t="n">
-        <v>513</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>354.3708668665142</v>
       </c>
       <c r="B357" t="n">
-        <v>514</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>355.3690946605044</v>
       </c>
       <c r="B358" t="n">
-        <v>515</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>356.3673224544946</v>
       </c>
       <c r="B359" t="n">
-        <v>515</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>357.3655502484848</v>
       </c>
       <c r="B360" t="n">
-        <v>516</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>358.363778042475</v>
       </c>
       <c r="B361" t="n">
-        <v>516</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>359.3620058364651</v>
       </c>
       <c r="B362" t="n">
-        <v>516</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>360.3602336304553</v>
       </c>
       <c r="B363" t="n">
-        <v>517</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>361.3584614244455</v>
       </c>
       <c r="B364" t="n">
-        <v>517</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>362.3566892184357</v>
       </c>
       <c r="B365" t="n">
-        <v>518</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>363.3549170124259</v>
       </c>
       <c r="B366" t="n">
-        <v>518</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>364.353144806416</v>
       </c>
       <c r="B367" t="n">
-        <v>518</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>365.3513726004062</v>
       </c>
       <c r="B368" t="n">
-        <v>519</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>366.3496003943964</v>
       </c>
       <c r="B369" t="n">
-        <v>519</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>367.3478281883866</v>
       </c>
       <c r="B370" t="n">
-        <v>519</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>368.3460559823768</v>
       </c>
       <c r="B371" t="n">
-        <v>519</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>369.3442837763669</v>
       </c>
       <c r="B372" t="n">
-        <v>520</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>370.3425115703571</v>
       </c>
       <c r="B373" t="n">
-        <v>520</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>371.3407393643473</v>
       </c>
       <c r="B374" t="n">
-        <v>520</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>372.3389671583375</v>
       </c>
       <c r="B375" t="n">
-        <v>520</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>373.3371949523276</v>
       </c>
       <c r="B376" t="n">
-        <v>520</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>374.3354227463178</v>
       </c>
       <c r="B377" t="n">
-        <v>521</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>375.333650540308</v>
       </c>
       <c r="B378" t="n">
-        <v>521</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>376.3318783342982</v>
       </c>
       <c r="B379" t="n">
-        <v>521</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>377.3301061282884</v>
       </c>
       <c r="B380" t="n">
-        <v>521</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>378.3283339222785</v>
       </c>
       <c r="B381" t="n">
-        <v>521</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>379.3265617162688</v>
       </c>
       <c r="B382" t="n">
-        <v>522</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>380.3247895102589</v>
       </c>
       <c r="B383" t="n">
-        <v>522</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>381.3230173042491</v>
       </c>
       <c r="B384" t="n">
-        <v>522</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>382.3212450982393</v>
       </c>
       <c r="B385" t="n">
-        <v>522</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>383.3194728922294</v>
       </c>
       <c r="B386" t="n">
-        <v>523</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>384.3177006862197</v>
       </c>
       <c r="B387" t="n">
-        <v>523</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>385.3159284802098</v>
       </c>
       <c r="B388" t="n">
-        <v>523</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>386.3141562742</v>
       </c>
       <c r="B389" t="n">
-        <v>523</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>387.3123840681902</v>
       </c>
       <c r="B390" t="n">
-        <v>524</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>388.3106118621804</v>
       </c>
       <c r="B391" t="n">
-        <v>524</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>389.3088396561706</v>
       </c>
       <c r="B392" t="n">
-        <v>524</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>390.3070674501607</v>
       </c>
       <c r="B393" t="n">
-        <v>524</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>391.3052952441509</v>
       </c>
       <c r="B394" t="n">
-        <v>524</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>392.3035230381411</v>
       </c>
       <c r="B395" t="n">
-        <v>525</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>393.3017508321313</v>
       </c>
       <c r="B396" t="n">
-        <v>525</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>394.2999786261215</v>
       </c>
       <c r="B397" t="n">
-        <v>525</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>395.2982064201116</v>
       </c>
       <c r="B398" t="n">
-        <v>526</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>396.2964342141018</v>
       </c>
       <c r="B399" t="n">
-        <v>527</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>397.294662008092</v>
       </c>
       <c r="B400" t="n">
-        <v>527</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>398.2928898020822</v>
       </c>
       <c r="B401" t="n">
-        <v>528</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>399.2911175960724</v>
       </c>
       <c r="B402" t="n">
-        <v>528</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>400.2893453900625</v>
       </c>
       <c r="B403" t="n">
-        <v>528</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>401.2875731840527</v>
       </c>
       <c r="B404" t="n">
-        <v>528</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>402.2858009780429</v>
       </c>
       <c r="B405" t="n">
-        <v>529</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>403.2840287720331</v>
       </c>
       <c r="B406" t="n">
-        <v>529</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>404.2822565660232</v>
       </c>
       <c r="B407" t="n">
-        <v>529</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>405.2804843600135</v>
       </c>
       <c r="B408" t="n">
-        <v>530</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>406.2787121540036</v>
       </c>
       <c r="B409" t="n">
-        <v>530</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>407.2769399479938</v>
       </c>
       <c r="B410" t="n">
-        <v>530</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>408.275167741984</v>
       </c>
       <c r="B411" t="n">
-        <v>531</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>409.2733955359741</v>
       </c>
       <c r="B412" t="n">
-        <v>531</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>410.2716233299644</v>
       </c>
       <c r="B413" t="n">
-        <v>531</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>411.2698511239545</v>
       </c>
       <c r="B414" t="n">
-        <v>531</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>412.2680789179447</v>
       </c>
       <c r="B415" t="n">
-        <v>532</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>413.2663067119349</v>
       </c>
       <c r="B416" t="n">
-        <v>532</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>414.2645345059251</v>
       </c>
       <c r="B417" t="n">
-        <v>537</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>415.2627622999153</v>
       </c>
       <c r="B418" t="n">
-        <v>537</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>416.2609900939054</v>
       </c>
       <c r="B419" t="n">
-        <v>537</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>417.2592178878956</v>
       </c>
       <c r="B420" t="n">
-        <v>538</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>418.2574456818858</v>
       </c>
       <c r="B421" t="n">
-        <v>538</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>419.255673475876</v>
       </c>
       <c r="B422" t="n">
-        <v>538</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>420.2539012698662</v>
       </c>
       <c r="B423" t="n">
-        <v>539</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>421.2521290638563</v>
       </c>
       <c r="B424" t="n">
-        <v>539</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>422.2503568578465</v>
       </c>
       <c r="B425" t="n">
-        <v>539</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>423.2485846518367</v>
       </c>
       <c r="B426" t="n">
-        <v>539</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>424.2468124458269</v>
       </c>
       <c r="B427" t="n">
-        <v>540</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>425.2450402398171</v>
       </c>
       <c r="B428" t="n">
-        <v>540</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>426.2432680338072</v>
       </c>
       <c r="B429" t="n">
-        <v>540</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>427.2414958277975</v>
       </c>
       <c r="B430" t="n">
-        <v>541</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>428.2397236217876</v>
       </c>
       <c r="B431" t="n">
-        <v>541</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>429.2379514157778</v>
       </c>
       <c r="B432" t="n">
-        <v>541</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>430.236179209768</v>
       </c>
       <c r="B433" t="n">
-        <v>542</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>431.2344070037582</v>
       </c>
       <c r="B434" t="n">
-        <v>542</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>432.2326347977483</v>
       </c>
       <c r="B435" t="n">
-        <v>543</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>433.2308625917385</v>
       </c>
       <c r="B436" t="n">
-        <v>543</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>434.2290903857287</v>
       </c>
       <c r="B437" t="n">
-        <v>545</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>435.2273181797188</v>
       </c>
       <c r="B438" t="n">
-        <v>545</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>436.2255459737091</v>
       </c>
       <c r="B439" t="n">
-        <v>545</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>437.2237737676992</v>
       </c>
       <c r="B440" t="n">
-        <v>546</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>438.2220015616894</v>
       </c>
       <c r="B441" t="n">
-        <v>546</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>439.2202293556796</v>
       </c>
       <c r="B442" t="n">
-        <v>547</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>440.2184571496698</v>
       </c>
       <c r="B443" t="n">
-        <v>547</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>441.21668494366</v>
       </c>
       <c r="B444" t="n">
-        <v>547</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>442.2149127376501</v>
       </c>
       <c r="B445" t="n">
-        <v>548</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>443.2131405316403</v>
       </c>
       <c r="B446" t="n">
-        <v>548</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>444.2113683256305</v>
       </c>
       <c r="B447" t="n">
-        <v>549</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>445.2095961196207</v>
       </c>
       <c r="B448" t="n">
-        <v>550</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>446.2078239136109</v>
       </c>
       <c r="B449" t="n">
-        <v>550</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>447.206051707601</v>
       </c>
       <c r="B450" t="n">
-        <v>550</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>448.2042795015912</v>
       </c>
       <c r="B451" t="n">
-        <v>551</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>449.2025072955814</v>
       </c>
       <c r="B452" t="n">
-        <v>551</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>450.2007350895716</v>
       </c>
       <c r="B453" t="n">
-        <v>551</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>451.1989628835618</v>
       </c>
       <c r="B454" t="n">
-        <v>552</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>452.1971906775519</v>
       </c>
       <c r="B455" t="n">
-        <v>552</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>453.1954184715422</v>
       </c>
       <c r="B456" t="n">
-        <v>553</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>454.1936462655323</v>
       </c>
       <c r="B457" t="n">
-        <v>554</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>455.1918740595225</v>
       </c>
       <c r="B458" t="n">
-        <v>554</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>456.1901018535127</v>
       </c>
       <c r="B459" t="n">
-        <v>554</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>457.1883296475029</v>
       </c>
       <c r="B460" t="n">
-        <v>555</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>458.1865574414931</v>
       </c>
       <c r="B461" t="n">
-        <v>555</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>459.1847852354832</v>
       </c>
       <c r="B462" t="n">
-        <v>556</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>460.1830130294734</v>
       </c>
       <c r="B463" t="n">
-        <v>556</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>461.1812408234636</v>
       </c>
       <c r="B464" t="n">
-        <v>557</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>462.1794686174538</v>
       </c>
       <c r="B465" t="n">
-        <v>557</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>463.1776964114439</v>
       </c>
       <c r="B466" t="n">
-        <v>557</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>464.1759242054341</v>
       </c>
       <c r="B467" t="n">
-        <v>558</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>465.1741519994243</v>
       </c>
       <c r="B468" t="n">
-        <v>558</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>466.1723797934145</v>
       </c>
       <c r="B469" t="n">
-        <v>558</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>467.1706075874047</v>
       </c>
       <c r="B470" t="n">
-        <v>558</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>468.1688353813948</v>
       </c>
       <c r="B471" t="n">
-        <v>559</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>469.167063175385</v>
       </c>
       <c r="B472" t="n">
-        <v>559</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>470.1652909693752</v>
       </c>
       <c r="B473" t="n">
-        <v>560</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>471.1635187633654</v>
       </c>
       <c r="B474" t="n">
-        <v>561</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>472.1617465573556</v>
       </c>
       <c r="B475" t="n">
-        <v>561</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>473.1599743513457</v>
       </c>
       <c r="B476" t="n">
-        <v>562</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>474.1582021453359</v>
       </c>
       <c r="B477" t="n">
-        <v>562</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>475.1564299393261</v>
       </c>
       <c r="B478" t="n">
-        <v>562</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>476.1546577333163</v>
       </c>
       <c r="B479" t="n">
-        <v>563</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>477.1528855273065</v>
       </c>
       <c r="B480" t="n">
-        <v>563</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>478.1511133212966</v>
       </c>
       <c r="B481" t="n">
-        <v>564</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>479.1493411152869</v>
       </c>
       <c r="B482" t="n">
-        <v>564</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>480.147568909277</v>
       </c>
       <c r="B483" t="n">
-        <v>565</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>481.1457967032672</v>
       </c>
       <c r="B484" t="n">
-        <v>565</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>482.1440244972574</v>
       </c>
       <c r="B485" t="n">
-        <v>566</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>483.1422522912476</v>
       </c>
       <c r="B486" t="n">
-        <v>566</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>484.1404800852378</v>
       </c>
       <c r="B487" t="n">
-        <v>573</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>485.1387078792279</v>
       </c>
       <c r="B488" t="n">
-        <v>573</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>486.1369356732181</v>
       </c>
       <c r="B489" t="n">
-        <v>573</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>487.1351634672083</v>
       </c>
       <c r="B490" t="n">
-        <v>574</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>488.1333912611985</v>
       </c>
       <c r="B491" t="n">
-        <v>574</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>489.1316190551887</v>
       </c>
       <c r="B492" t="n">
-        <v>574</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>490.1298468491788</v>
       </c>
       <c r="B493" t="n">
-        <v>574</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>491.128074643169</v>
       </c>
       <c r="B494" t="n">
-        <v>574</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>492.1263024371592</v>
       </c>
       <c r="B495" t="n">
-        <v>574</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>493.1245302311494</v>
       </c>
       <c r="B496" t="n">
-        <v>574</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>494.1227580251395</v>
       </c>
       <c r="B497" t="n">
-        <v>575</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>495.1209858191297</v>
       </c>
       <c r="B498" t="n">
-        <v>575</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>496.1192136131199</v>
       </c>
       <c r="B499" t="n">
-        <v>575</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>497.1174414071101</v>
       </c>
       <c r="B500" t="n">
-        <v>575</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>498.1156692011003</v>
       </c>
       <c r="B501" t="n">
-        <v>575</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="502">
@@ -4450,7 +4450,7 @@
         <v>499.1138969950904</v>
       </c>
       <c r="B502" t="n">
-        <v>575</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="503">
@@ -4458,7 +4458,7 @@
         <v>500.1121247890806</v>
       </c>
       <c r="B503" t="n">
-        <v>576</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="504">
@@ -4466,7 +4466,7 @@
         <v>501.1103525830708</v>
       </c>
       <c r="B504" t="n">
-        <v>576</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="505">
@@ -4474,7 +4474,7 @@
         <v>502.108580377061</v>
       </c>
       <c r="B505" t="n">
-        <v>576</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="506">
@@ -4482,7 +4482,7 @@
         <v>503.1068081710512</v>
       </c>
       <c r="B506" t="n">
-        <v>576</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="507">
@@ -4490,7 +4490,7 @@
         <v>504.1050359650413</v>
       </c>
       <c r="B507" t="n">
-        <v>576</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="508">
@@ -4498,7 +4498,7 @@
         <v>505.1032637590316</v>
       </c>
       <c r="B508" t="n">
-        <v>577</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="509">
@@ -4506,7 +4506,7 @@
         <v>506.1014915530217</v>
       </c>
       <c r="B509" t="n">
-        <v>577</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="510">
@@ -4514,7 +4514,7 @@
         <v>507.0997193470119</v>
       </c>
       <c r="B510" t="n">
-        <v>577</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="511">
@@ -4522,7 +4522,7 @@
         <v>508.0979471410021</v>
       </c>
       <c r="B511" t="n">
-        <v>577</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="512">
@@ -4530,7 +4530,7 @@
         <v>509.0961749349923</v>
       </c>
       <c r="B512" t="n">
-        <v>577</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="513">
@@ -4538,7 +4538,7 @@
         <v>510.0944027289825</v>
       </c>
       <c r="B513" t="n">
-        <v>578</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="514">
@@ -4546,7 +4546,7 @@
         <v>511.0926305229726</v>
       </c>
       <c r="B514" t="n">
-        <v>578</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="515">
@@ -4554,7 +4554,7 @@
         <v>512.0908583169628</v>
       </c>
       <c r="B515" t="n">
-        <v>578</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="516">
@@ -4562,7 +4562,7 @@
         <v>513.089086110953</v>
       </c>
       <c r="B516" t="n">
-        <v>578</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="517">
@@ -4570,7 +4570,7 @@
         <v>514.0873139049431</v>
       </c>
       <c r="B517" t="n">
-        <v>579</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="518">
@@ -4578,7 +4578,7 @@
         <v>515.0855416989333</v>
       </c>
       <c r="B518" t="n">
-        <v>579</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="519">
@@ -4586,7 +4586,7 @@
         <v>516.0837694929236</v>
       </c>
       <c r="B519" t="n">
-        <v>579</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="520">
@@ -4594,7 +4594,7 @@
         <v>517.0819972869137</v>
       </c>
       <c r="B520" t="n">
-        <v>580</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="521">
@@ -4602,7 +4602,7 @@
         <v>518.0802250809039</v>
       </c>
       <c r="B521" t="n">
-        <v>581</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="522">
@@ -4610,7 +4610,7 @@
         <v>519.0784528748941</v>
       </c>
       <c r="B522" t="n">
-        <v>588</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="523">
@@ -4618,7 +4618,7 @@
         <v>520.0766806688843</v>
       </c>
       <c r="B523" t="n">
-        <v>588</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="524">
@@ -4626,7 +4626,7 @@
         <v>521.0749084628744</v>
       </c>
       <c r="B524" t="n">
-        <v>589</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="525">
@@ -4634,7 +4634,7 @@
         <v>522.0731362568646</v>
       </c>
       <c r="B525" t="n">
-        <v>589</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="526">
@@ -4642,7 +4642,7 @@
         <v>523.0713640508548</v>
       </c>
       <c r="B526" t="n">
-        <v>590</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="527">
@@ -4650,7 +4650,7 @@
         <v>524.0695918448449</v>
       </c>
       <c r="B527" t="n">
-        <v>590</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="528">
@@ -4658,7 +4658,7 @@
         <v>525.0678196388352</v>
       </c>
       <c r="B528" t="n">
-        <v>590</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="529">
@@ -4666,7 +4666,7 @@
         <v>526.0660474328254</v>
       </c>
       <c r="B529" t="n">
-        <v>591</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="530">
@@ -4674,7 +4674,7 @@
         <v>527.0642752268155</v>
       </c>
       <c r="B530" t="n">
-        <v>591</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="531">
@@ -4682,7 +4682,7 @@
         <v>528.0625030208057</v>
       </c>
       <c r="B531" t="n">
-        <v>591</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="532">
@@ -4690,7 +4690,7 @@
         <v>529.0607308147959</v>
       </c>
       <c r="B532" t="n">
-        <v>591</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="533">
@@ -4698,7 +4698,7 @@
         <v>530.058958608786</v>
       </c>
       <c r="B533" t="n">
-        <v>592</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>531.0571864027762</v>
       </c>
       <c r="B534" t="n">
-        <v>592</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>532.0554141967664</v>
       </c>
       <c r="B535" t="n">
-        <v>592</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>533.0536419907567</v>
       </c>
       <c r="B536" t="n">
-        <v>592</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>534.0518697847468</v>
       </c>
       <c r="B537" t="n">
-        <v>592</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>535.050097578737</v>
       </c>
       <c r="B538" t="n">
-        <v>593</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>536.0483253727272</v>
       </c>
       <c r="B539" t="n">
-        <v>593</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>537.0465531667173</v>
       </c>
       <c r="B540" t="n">
-        <v>593</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>538.0447809607075</v>
       </c>
       <c r="B541" t="n">
-        <v>593</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>539.0430087546977</v>
       </c>
       <c r="B542" t="n">
-        <v>594</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>540.0412365486878</v>
       </c>
       <c r="B543" t="n">
-        <v>594</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>541.039464342678</v>
       </c>
       <c r="B544" t="n">
-        <v>594</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>542.0376921366683</v>
       </c>
       <c r="B545" t="n">
-        <v>594</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>543.0359199306585</v>
       </c>
       <c r="B546" t="n">
-        <v>595</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>544.0341477246486</v>
       </c>
       <c r="B547" t="n">
-        <v>595</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>545.0323755186388</v>
       </c>
       <c r="B548" t="n">
-        <v>595</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>546.030603312629</v>
       </c>
       <c r="B549" t="n">
-        <v>596</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>547.0288311066191</v>
       </c>
       <c r="B550" t="n">
-        <v>596</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>548.0270589006093</v>
       </c>
       <c r="B551" t="n">
-        <v>597</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>549.0252866945995</v>
       </c>
       <c r="B552" t="n">
-        <v>597</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>550.0235144885896</v>
       </c>
       <c r="B553" t="n">
-        <v>597</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>551.0217422825799</v>
       </c>
       <c r="B554" t="n">
-        <v>598</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>552.0199700765701</v>
       </c>
       <c r="B555" t="n">
-        <v>598</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>553.0181978705602</v>
       </c>
       <c r="B556" t="n">
-        <v>599</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>554.0164256645504</v>
       </c>
       <c r="B557" t="n">
-        <v>599</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>555.0146534585406</v>
       </c>
       <c r="B558" t="n">
-        <v>600</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>556.0128812525307</v>
       </c>
       <c r="B559" t="n">
-        <v>600</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>557.0111090465209</v>
       </c>
       <c r="B560" t="n">
-        <v>601</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>558.0093368405111</v>
       </c>
       <c r="B561" t="n">
-        <v>601</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>559.0075646345014</v>
       </c>
       <c r="B562" t="n">
-        <v>601</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>560.0057924284915</v>
       </c>
       <c r="B563" t="n">
-        <v>601</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>561.0040202224817</v>
       </c>
       <c r="B564" t="n">
-        <v>602</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>562.0022480164719</v>
       </c>
       <c r="B565" t="n">
-        <v>602</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>563.000475810462</v>
       </c>
       <c r="B566" t="n">
-        <v>602</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>563.9987036044522</v>
       </c>
       <c r="B567" t="n">
-        <v>603</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>564.9969313984424</v>
       </c>
       <c r="B568" t="n">
-        <v>603</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>565.9951591924325</v>
       </c>
       <c r="B569" t="n">
-        <v>603</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>566.9933869864227</v>
       </c>
       <c r="B570" t="n">
-        <v>604</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="571">
@@ -5002,7 +5002,7 @@
         <v>567.991614780413</v>
       </c>
       <c r="B571" t="n">
-        <v>604</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="572">
@@ -5010,7 +5010,7 @@
         <v>568.9898425744032</v>
       </c>
       <c r="B572" t="n">
-        <v>605</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="573">
@@ -5018,7 +5018,7 @@
         <v>569.9880703683933</v>
       </c>
       <c r="B573" t="n">
-        <v>605</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="574">
@@ -5026,7 +5026,7 @@
         <v>570.9862981623835</v>
       </c>
       <c r="B574" t="n">
-        <v>605</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="575">
@@ -5034,7 +5034,7 @@
         <v>571.9845259563737</v>
       </c>
       <c r="B575" t="n">
-        <v>606</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="576">
@@ -5042,7 +5042,7 @@
         <v>572.9827537503638</v>
       </c>
       <c r="B576" t="n">
-        <v>606</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="577">
@@ -5050,7 +5050,7 @@
         <v>573.980981544354</v>
       </c>
       <c r="B577" t="n">
-        <v>607</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="578">
@@ -5058,7 +5058,7 @@
         <v>574.9792093383442</v>
       </c>
       <c r="B578" t="n">
-        <v>607</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="579">
@@ -5066,7 +5066,7 @@
         <v>575.9774371323343</v>
       </c>
       <c r="B579" t="n">
-        <v>608</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="580">
@@ -5074,7 +5074,7 @@
         <v>576.9756649263246</v>
       </c>
       <c r="B580" t="n">
-        <v>609</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="581">
@@ -5082,7 +5082,7 @@
         <v>577.9738927203148</v>
       </c>
       <c r="B581" t="n">
-        <v>610</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="582">
@@ -5090,7 +5090,7 @@
         <v>578.9721205143049</v>
       </c>
       <c r="B582" t="n">
-        <v>611</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="583">
@@ -5098,7 +5098,7 @@
         <v>579.9703483082951</v>
       </c>
       <c r="B583" t="n">
-        <v>612</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="584">
@@ -5106,7 +5106,7 @@
         <v>580.9685761022853</v>
       </c>
       <c r="B584" t="n">
-        <v>614</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="585">
@@ -5114,7 +5114,7 @@
         <v>581.9668038962755</v>
       </c>
       <c r="B585" t="n">
-        <v>614</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="586">
@@ -5122,7 +5122,7 @@
         <v>582.9650316902656</v>
       </c>
       <c r="B586" t="n">
-        <v>614</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="587">
@@ -5130,7 +5130,7 @@
         <v>583.9632594842558</v>
       </c>
       <c r="B587" t="n">
-        <v>615</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="588">
@@ -5138,7 +5138,7 @@
         <v>584.9614872782461</v>
       </c>
       <c r="B588" t="n">
-        <v>615</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="589">
@@ -5146,7 +5146,7 @@
         <v>585.9597150722362</v>
       </c>
       <c r="B589" t="n">
-        <v>615</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="590">
@@ -5154,7 +5154,7 @@
         <v>586.9579428662264</v>
       </c>
       <c r="B590" t="n">
-        <v>615</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="591">
@@ -5162,7 +5162,7 @@
         <v>587.9561706602166</v>
       </c>
       <c r="B591" t="n">
-        <v>616</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="592">
@@ -5170,7 +5170,7 @@
         <v>588.9543984542067</v>
       </c>
       <c r="B592" t="n">
-        <v>616</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="593">
@@ -5178,7 +5178,7 @@
         <v>589.9526262481969</v>
       </c>
       <c r="B593" t="n">
-        <v>616</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="594">
@@ -5186,7 +5186,7 @@
         <v>590.9508540421871</v>
       </c>
       <c r="B594" t="n">
-        <v>617</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="595">
@@ -5194,7 +5194,7 @@
         <v>591.9490818361772</v>
       </c>
       <c r="B595" t="n">
-        <v>617</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="596">
@@ -5202,7 +5202,7 @@
         <v>592.9473096301674</v>
       </c>
       <c r="B596" t="n">
-        <v>617</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="597">
@@ -5210,7 +5210,7 @@
         <v>593.9455374241577</v>
       </c>
       <c r="B597" t="n">
-        <v>617</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="598">
@@ -5218,7 +5218,7 @@
         <v>594.9437652181479</v>
       </c>
       <c r="B598" t="n">
-        <v>618</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="599">
@@ -5226,7 +5226,7 @@
         <v>595.941993012138</v>
       </c>
       <c r="B599" t="n">
-        <v>618</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="600">
@@ -5234,7 +5234,7 @@
         <v>596.9402208061282</v>
       </c>
       <c r="B600" t="n">
-        <v>618</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="601">
@@ -5242,7 +5242,7 @@
         <v>597.9384486001184</v>
       </c>
       <c r="B601" t="n">
-        <v>618</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="602">
@@ -5250,7 +5250,7 @@
         <v>598.9366763941085</v>
       </c>
       <c r="B602" t="n">
-        <v>618</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="603">
@@ -5258,7 +5258,7 @@
         <v>599.9349041880987</v>
       </c>
       <c r="B603" t="n">
-        <v>618</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="604">
@@ -5266,7 +5266,7 @@
         <v>600.9331319820889</v>
       </c>
       <c r="B604" t="n">
-        <v>619</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="605">
@@ -5274,7 +5274,7 @@
         <v>601.931359776079</v>
       </c>
       <c r="B605" t="n">
-        <v>619</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="606">
@@ -5282,7 +5282,7 @@
         <v>602.9295875700693</v>
       </c>
       <c r="B606" t="n">
-        <v>619</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="607">
@@ -5290,7 +5290,7 @@
         <v>603.9278153640595</v>
       </c>
       <c r="B607" t="n">
-        <v>619</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="608">
@@ -5298,7 +5298,7 @@
         <v>604.9260431580497</v>
       </c>
       <c r="B608" t="n">
-        <v>619</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="609">
@@ -5306,7 +5306,7 @@
         <v>605.9242709520398</v>
       </c>
       <c r="B609" t="n">
-        <v>619</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>606.92249874603</v>
       </c>
       <c r="B610" t="n">
-        <v>620</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="611">
@@ -5322,7 +5322,7 @@
         <v>607.9207265400202</v>
       </c>
       <c r="B611" t="n">
-        <v>620</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>608.9189543340103</v>
       </c>
       <c r="B612" t="n">
-        <v>620</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="613">
@@ -5338,7 +5338,7 @@
         <v>609.9171821280005</v>
       </c>
       <c r="B613" t="n">
-        <v>621</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="614">
@@ -5346,7 +5346,7 @@
         <v>610.9154099219908</v>
       </c>
       <c r="B614" t="n">
-        <v>621</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="615">
@@ -5354,7 +5354,7 @@
         <v>611.9136377159809</v>
       </c>
       <c r="B615" t="n">
-        <v>621</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="616">
@@ -5362,7 +5362,7 @@
         <v>612.9118655099711</v>
       </c>
       <c r="B616" t="n">
-        <v>622</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="617">
@@ -5370,7 +5370,7 @@
         <v>613.9100933039613</v>
       </c>
       <c r="B617" t="n">
-        <v>622</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="618">
@@ -5378,7 +5378,7 @@
         <v>614.9083210979514</v>
       </c>
       <c r="B618" t="n">
-        <v>622</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="619">
@@ -5386,7 +5386,7 @@
         <v>615.9065488919416</v>
       </c>
       <c r="B619" t="n">
-        <v>623</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="620">
@@ -5394,7 +5394,7 @@
         <v>616.9047766859318</v>
       </c>
       <c r="B620" t="n">
-        <v>623</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="621">
@@ -5402,7 +5402,7 @@
         <v>617.9030044799219</v>
       </c>
       <c r="B621" t="n">
-        <v>624</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="622">
@@ -5410,7 +5410,7 @@
         <v>618.9012322739121</v>
       </c>
       <c r="B622" t="n">
-        <v>624</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>619.8994600679024</v>
       </c>
       <c r="B623" t="n">
-        <v>625</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>620.8976878618926</v>
       </c>
       <c r="B624" t="n">
-        <v>625</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="625">
@@ -5434,7 +5434,7 @@
         <v>621.8959156558827</v>
       </c>
       <c r="B625" t="n">
-        <v>625</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="626">
@@ -5442,7 +5442,7 @@
         <v>622.8941434498729</v>
       </c>
       <c r="B626" t="n">
-        <v>626</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="627">
@@ -5450,7 +5450,7 @@
         <v>623.8923712438631</v>
       </c>
       <c r="B627" t="n">
-        <v>626</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="628">
@@ -5458,7 +5458,7 @@
         <v>624.8905990378532</v>
       </c>
       <c r="B628" t="n">
-        <v>627</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="629">
@@ -5466,7 +5466,7 @@
         <v>625.8888268318434</v>
       </c>
       <c r="B629" t="n">
-        <v>627</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="630">
@@ -5474,7 +5474,7 @@
         <v>626.8870546258336</v>
       </c>
       <c r="B630" t="n">
-        <v>628</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="631">
@@ -5482,7 +5482,7 @@
         <v>627.8852824198237</v>
       </c>
       <c r="B631" t="n">
-        <v>628</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="632">
@@ -5490,7 +5490,7 @@
         <v>628.883510213814</v>
       </c>
       <c r="B632" t="n">
-        <v>629</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="633">
@@ -5498,7 +5498,7 @@
         <v>629.8817380078042</v>
       </c>
       <c r="B633" t="n">
-        <v>629</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="634">
@@ -5506,7 +5506,7 @@
         <v>630.8799658017944</v>
       </c>
       <c r="B634" t="n">
-        <v>629</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="635">
@@ -5514,7 +5514,7 @@
         <v>631.8781935957845</v>
       </c>
       <c r="B635" t="n">
-        <v>630</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="636">
@@ -5522,7 +5522,7 @@
         <v>632.8764213897747</v>
       </c>
       <c r="B636" t="n">
-        <v>630</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>633.8746491837649</v>
       </c>
       <c r="B637" t="n">
-        <v>631</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="638">
@@ -5538,7 +5538,7 @@
         <v>634.872876977755</v>
       </c>
       <c r="B638" t="n">
-        <v>631</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="639">
@@ -5546,7 +5546,7 @@
         <v>635.8711047717452</v>
       </c>
       <c r="B639" t="n">
-        <v>631</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="640">
@@ -5554,7 +5554,7 @@
         <v>636.8693325657355</v>
       </c>
       <c r="B640" t="n">
-        <v>632</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="641">
@@ -5562,7 +5562,7 @@
         <v>637.8675603597256</v>
       </c>
       <c r="B641" t="n">
-        <v>632</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="642">
@@ -5570,7 +5570,7 @@
         <v>638.8657881537158</v>
       </c>
       <c r="B642" t="n">
-        <v>633</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="643">
@@ -5578,7 +5578,7 @@
         <v>639.864015947706</v>
       </c>
       <c r="B643" t="n">
-        <v>634</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="644">
@@ -5586,7 +5586,7 @@
         <v>640.8622437416961</v>
       </c>
       <c r="B644" t="n">
-        <v>634</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="645">
@@ -5594,7 +5594,7 @@
         <v>641.8604715356863</v>
       </c>
       <c r="B645" t="n">
-        <v>635</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="646">
@@ -5602,7 +5602,7 @@
         <v>642.8586993296765</v>
       </c>
       <c r="B646" t="n">
-        <v>635</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="647">
@@ -5610,7 +5610,7 @@
         <v>643.8569271236667</v>
       </c>
       <c r="B647" t="n">
-        <v>635</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="648">
@@ -5618,7 +5618,7 @@
         <v>644.8551549176568</v>
       </c>
       <c r="B648" t="n">
-        <v>635</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="649">
@@ -5626,7 +5626,7 @@
         <v>645.8533827116471</v>
       </c>
       <c r="B649" t="n">
-        <v>636</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="650">
@@ -5634,7 +5634,7 @@
         <v>646.8516105056373</v>
       </c>
       <c r="B650" t="n">
-        <v>636</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="651">
@@ -5642,7 +5642,7 @@
         <v>647.8498382996274</v>
       </c>
       <c r="B651" t="n">
-        <v>637</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="652">
@@ -5650,7 +5650,7 @@
         <v>648.8480660936176</v>
       </c>
       <c r="B652" t="n">
-        <v>637</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="653">
@@ -5658,7 +5658,7 @@
         <v>649.8462938876078</v>
       </c>
       <c r="B653" t="n">
-        <v>637</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="654">
@@ -5666,7 +5666,7 @@
         <v>650.8445216815979</v>
       </c>
       <c r="B654" t="n">
-        <v>637</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="655">
@@ -5674,7 +5674,7 @@
         <v>651.8427494755881</v>
       </c>
       <c r="B655" t="n">
-        <v>638</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="656">
@@ -5682,7 +5682,7 @@
         <v>652.8409772695783</v>
       </c>
       <c r="B656" t="n">
-        <v>638</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="657">
@@ -5690,7 +5690,7 @@
         <v>653.8392050635684</v>
       </c>
       <c r="B657" t="n">
-        <v>641</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="658">
@@ -5698,7 +5698,7 @@
         <v>654.8374328575587</v>
       </c>
       <c r="B658" t="n">
-        <v>641</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="659">
@@ -5706,7 +5706,7 @@
         <v>655.8356606515489</v>
       </c>
       <c r="B659" t="n">
-        <v>642</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="660">
@@ -5714,7 +5714,7 @@
         <v>656.8338884455391</v>
       </c>
       <c r="B660" t="n">
-        <v>643</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="661">
@@ -5722,7 +5722,7 @@
         <v>657.8321162395292</v>
       </c>
       <c r="B661" t="n">
-        <v>643</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="662">
@@ -5730,7 +5730,7 @@
         <v>658.8303440335194</v>
       </c>
       <c r="B662" t="n">
-        <v>643</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="663">
@@ -5738,7 +5738,7 @@
         <v>659.8285718275096</v>
       </c>
       <c r="B663" t="n">
-        <v>644</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="664">
@@ -5746,7 +5746,7 @@
         <v>660.8267996214997</v>
       </c>
       <c r="B664" t="n">
-        <v>644</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="665">
@@ -5754,7 +5754,7 @@
         <v>661.8250274154899</v>
       </c>
       <c r="B665" t="n">
-        <v>645</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="666">
@@ -5762,7 +5762,7 @@
         <v>662.8232552094802</v>
       </c>
       <c r="B666" t="n">
-        <v>646</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="667">
@@ -5770,7 +5770,7 @@
         <v>663.8214830034703</v>
       </c>
       <c r="B667" t="n">
-        <v>646</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="668">
@@ -5778,7 +5778,7 @@
         <v>664.8197107974605</v>
       </c>
       <c r="B668" t="n">
-        <v>647</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="669">
@@ -5786,7 +5786,7 @@
         <v>665.8179385914507</v>
       </c>
       <c r="B669" t="n">
-        <v>648</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="670">
@@ -5794,7 +5794,7 @@
         <v>666.8161663854409</v>
       </c>
       <c r="B670" t="n">
-        <v>649</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>667.814394179431</v>
       </c>
       <c r="B671" t="n">
-        <v>649</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="672">
@@ -5810,7 +5810,7 @@
         <v>668.8126219734212</v>
       </c>
       <c r="B672" t="n">
-        <v>650</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="673">
@@ -5818,7 +5818,7 @@
         <v>669.8108497674114</v>
       </c>
       <c r="B673" t="n">
-        <v>650</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="674">
@@ -5826,7 +5826,7 @@
         <v>670.8090775614015</v>
       </c>
       <c r="B674" t="n">
-        <v>651</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="675">
@@ -5834,7 +5834,7 @@
         <v>671.8073053553918</v>
       </c>
       <c r="B675" t="n">
-        <v>651</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="676">
@@ -5842,7 +5842,7 @@
         <v>672.805533149382</v>
       </c>
       <c r="B676" t="n">
-        <v>652</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="677">
@@ -5850,7 +5850,7 @@
         <v>673.8037609433721</v>
       </c>
       <c r="B677" t="n">
-        <v>653</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="678">
@@ -5858,7 +5858,7 @@
         <v>674.8019887373623</v>
       </c>
       <c r="B678" t="n">
-        <v>653</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="679">
@@ -5866,7 +5866,7 @@
         <v>675.8002165313525</v>
       </c>
       <c r="B679" t="n">
-        <v>653</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="680">
@@ -5874,7 +5874,7 @@
         <v>676.7984443253426</v>
       </c>
       <c r="B680" t="n">
-        <v>654</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="681">
@@ -5882,7 +5882,7 @@
         <v>677.7966721193328</v>
       </c>
       <c r="B681" t="n">
-        <v>654</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="682">
@@ -5890,7 +5890,7 @@
         <v>678.794899913323</v>
       </c>
       <c r="B682" t="n">
-        <v>654</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="683">
@@ -5898,7 +5898,7 @@
         <v>679.7931277073131</v>
       </c>
       <c r="B683" t="n">
-        <v>655</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="684">
@@ -5906,7 +5906,7 @@
         <v>680.7913555013034</v>
       </c>
       <c r="B684" t="n">
-        <v>655</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>681.7895832952936</v>
       </c>
       <c r="B685" t="n">
-        <v>656</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="686">
@@ -5922,7 +5922,7 @@
         <v>682.7878110892838</v>
       </c>
       <c r="B686" t="n">
-        <v>656</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="687">
@@ -5930,7 +5930,7 @@
         <v>683.7860388832739</v>
       </c>
       <c r="B687" t="n">
-        <v>656</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="688">
@@ -5938,7 +5938,7 @@
         <v>684.7842666772641</v>
       </c>
       <c r="B688" t="n">
-        <v>657</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="689">
@@ -5946,7 +5946,7 @@
         <v>685.7824944712543</v>
       </c>
       <c r="B689" t="n">
-        <v>657</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="690">
@@ -5954,7 +5954,7 @@
         <v>686.7807222652444</v>
       </c>
       <c r="B690" t="n">
-        <v>658</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="691">
@@ -5962,7 +5962,7 @@
         <v>687.7789500592346</v>
       </c>
       <c r="B691" t="n">
-        <v>658</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="692">
@@ -5970,7 +5970,7 @@
         <v>688.7771778532249</v>
       </c>
       <c r="B692" t="n">
-        <v>658</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>689.7754056472151</v>
       </c>
       <c r="B693" t="n">
-        <v>659</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>690.7736334412052</v>
       </c>
       <c r="B694" t="n">
-        <v>659</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>691.7718612351954</v>
       </c>
       <c r="B695" t="n">
-        <v>660</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>692.7700890291856</v>
       </c>
       <c r="B696" t="n">
-        <v>660</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>693.7683168231757</v>
       </c>
       <c r="B697" t="n">
-        <v>661</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>694.7665446171659</v>
       </c>
       <c r="B698" t="n">
-        <v>661</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>695.7647724111561</v>
       </c>
       <c r="B699" t="n">
-        <v>662</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>696.7630002051462</v>
       </c>
       <c r="B700" t="n">
-        <v>662</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>697.7612279991365</v>
       </c>
       <c r="B701" t="n">
-        <v>662</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>698.7594557931267</v>
       </c>
       <c r="B702" t="n">
-        <v>663</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>699.7576835871168</v>
       </c>
       <c r="B703" t="n">
-        <v>663</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>700.755911381107</v>
       </c>
       <c r="B704" t="n">
-        <v>663</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>701.7541391750972</v>
       </c>
       <c r="B705" t="n">
-        <v>663</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>702.7523669690873</v>
       </c>
       <c r="B706" t="n">
-        <v>664</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>703.7505947630775</v>
       </c>
       <c r="B707" t="n">
-        <v>664</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>704.7488225570677</v>
       </c>
       <c r="B708" t="n">
-        <v>664</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>705.7470503510579</v>
       </c>
       <c r="B709" t="n">
-        <v>665</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>706.7452781450481</v>
       </c>
       <c r="B710" t="n">
-        <v>665</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>707.7435059390383</v>
       </c>
       <c r="B711" t="n">
-        <v>665</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>708.7417337330285</v>
       </c>
       <c r="B712" t="n">
-        <v>665</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>709.7399615270186</v>
       </c>
       <c r="B713" t="n">
-        <v>666</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>710.7381893210088</v>
       </c>
       <c r="B714" t="n">
-        <v>666</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>711.736417114999</v>
       </c>
       <c r="B715" t="n">
-        <v>666</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="716">
@@ -6162,7 +6162,7 @@
         <v>712.7346449089891</v>
       </c>
       <c r="B716" t="n">
-        <v>667</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="717">
@@ -6170,7 +6170,7 @@
         <v>713.7328727029793</v>
       </c>
       <c r="B717" t="n">
-        <v>667</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>714.7311004969696</v>
       </c>
       <c r="B718" t="n">
-        <v>668</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>715.7293282909598</v>
       </c>
       <c r="B719" t="n">
-        <v>668</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="720">
@@ -6194,7 +6194,7 @@
         <v>716.7275560849499</v>
       </c>
       <c r="B720" t="n">
-        <v>669</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="721">
@@ -6202,7 +6202,7 @@
         <v>717.7257838789401</v>
       </c>
       <c r="B721" t="n">
-        <v>669</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="722">
@@ -6210,7 +6210,7 @@
         <v>718.7240116729303</v>
       </c>
       <c r="B722" t="n">
-        <v>670</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="723">
@@ -6218,7 +6218,7 @@
         <v>719.7222394669204</v>
       </c>
       <c r="B723" t="n">
-        <v>670</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="724">
@@ -6226,7 +6226,7 @@
         <v>720.7204672609106</v>
       </c>
       <c r="B724" t="n">
-        <v>671</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="725">
@@ -6234,7 +6234,7 @@
         <v>721.7186950549008</v>
       </c>
       <c r="B725" t="n">
-        <v>671</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="726">
@@ -6242,7 +6242,7 @@
         <v>722.7169228488909</v>
       </c>
       <c r="B726" t="n">
-        <v>671</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="727">
@@ -6250,7 +6250,7 @@
         <v>723.7151506428812</v>
       </c>
       <c r="B727" t="n">
-        <v>672</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="728">
@@ -6258,7 +6258,7 @@
         <v>724.7133784368714</v>
       </c>
       <c r="B728" t="n">
-        <v>673</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="729">
@@ -6266,7 +6266,7 @@
         <v>725.7116062308615</v>
       </c>
       <c r="B729" t="n">
-        <v>673</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="730">
@@ -6274,7 +6274,7 @@
         <v>726.7098340248517</v>
       </c>
       <c r="B730" t="n">
-        <v>674</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="731">
@@ -6282,7 +6282,7 @@
         <v>727.7080618188419</v>
       </c>
       <c r="B731" t="n">
-        <v>674</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="732">
@@ -6290,7 +6290,7 @@
         <v>728.7062896128321</v>
       </c>
       <c r="B732" t="n">
-        <v>675</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="733">
@@ -6298,7 +6298,7 @@
         <v>729.7045174068222</v>
       </c>
       <c r="B733" t="n">
-        <v>675</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="734">
@@ -6306,7 +6306,7 @@
         <v>730.7027452008124</v>
       </c>
       <c r="B734" t="n">
-        <v>676</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="735">
@@ -6314,7 +6314,7 @@
         <v>731.7009729948026</v>
       </c>
       <c r="B735" t="n">
-        <v>676</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="736">
@@ -6322,7 +6322,7 @@
         <v>732.6992007887928</v>
       </c>
       <c r="B736" t="n">
-        <v>677</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>733.697428582783</v>
       </c>
       <c r="B737" t="n">
-        <v>677</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>734.6956563767732</v>
       </c>
       <c r="B738" t="n">
-        <v>677</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>735.6938841707633</v>
       </c>
       <c r="B739" t="n">
-        <v>678</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>736.6921119647535</v>
       </c>
       <c r="B740" t="n">
-        <v>678</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>737.6903397587437</v>
       </c>
       <c r="B741" t="n">
-        <v>679</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>738.6885675527338</v>
       </c>
       <c r="B742" t="n">
-        <v>679</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="743">
@@ -6378,7 +6378,7 @@
         <v>739.686795346724</v>
       </c>
       <c r="B743" t="n">
-        <v>679</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="744">
@@ -6386,7 +6386,7 @@
         <v>740.6850231407143</v>
       </c>
       <c r="B744" t="n">
-        <v>680</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="745">
@@ -6394,7 +6394,7 @@
         <v>741.6832509347045</v>
       </c>
       <c r="B745" t="n">
-        <v>680</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="746">
@@ -6402,7 +6402,7 @@
         <v>742.6814787286946</v>
       </c>
       <c r="B746" t="n">
-        <v>681</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="747">
@@ -6410,7 +6410,7 @@
         <v>743.6797065226848</v>
       </c>
       <c r="B747" t="n">
-        <v>682</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="748">
@@ -6418,7 +6418,7 @@
         <v>744.677934316675</v>
       </c>
       <c r="B748" t="n">
-        <v>683</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="749">
@@ -6426,7 +6426,7 @@
         <v>745.6761621106651</v>
       </c>
       <c r="B749" t="n">
-        <v>683</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="750">
@@ -6434,7 +6434,7 @@
         <v>746.6743899046553</v>
       </c>
       <c r="B750" t="n">
-        <v>683</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="751">
@@ -6442,7 +6442,7 @@
         <v>747.6726176986455</v>
       </c>
       <c r="B751" t="n">
-        <v>684</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="752">
@@ -6450,7 +6450,7 @@
         <v>748.6708454926356</v>
       </c>
       <c r="B752" t="n">
-        <v>684</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="753">
@@ -6458,7 +6458,7 @@
         <v>749.6690732866259</v>
       </c>
       <c r="B753" t="n">
-        <v>684</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="754">
@@ -6466,7 +6466,7 @@
         <v>750.6673010806161</v>
       </c>
       <c r="B754" t="n">
-        <v>685</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="755">
@@ -6474,7 +6474,7 @@
         <v>751.6655288746063</v>
       </c>
       <c r="B755" t="n">
-        <v>685</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="756">
@@ -6482,7 +6482,7 @@
         <v>752.6637566685964</v>
       </c>
       <c r="B756" t="n">
-        <v>685</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="757">
@@ -6490,7 +6490,7 @@
         <v>753.6619844625866</v>
       </c>
       <c r="B757" t="n">
-        <v>685</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="758">
@@ -6498,7 +6498,7 @@
         <v>754.6602122565768</v>
       </c>
       <c r="B758" t="n">
-        <v>686</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="759">
@@ -6506,7 +6506,7 @@
         <v>755.6584400505669</v>
       </c>
       <c r="B759" t="n">
-        <v>686</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="760">
@@ -6514,7 +6514,7 @@
         <v>756.6566678445571</v>
       </c>
       <c r="B760" t="n">
-        <v>686</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="761">
@@ -6522,7 +6522,7 @@
         <v>757.6548956385473</v>
       </c>
       <c r="B761" t="n">
-        <v>686</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="762">
@@ -6530,7 +6530,7 @@
         <v>758.6531234325375</v>
       </c>
       <c r="B762" t="n">
-        <v>687</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="763">
@@ -6538,7 +6538,7 @@
         <v>759.6513512265277</v>
       </c>
       <c r="B763" t="n">
-        <v>687</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="764">
@@ -6546,7 +6546,7 @@
         <v>760.6495790205179</v>
       </c>
       <c r="B764" t="n">
-        <v>687</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="765">
@@ -6554,7 +6554,7 @@
         <v>761.647806814508</v>
       </c>
       <c r="B765" t="n">
-        <v>688</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="766">
@@ -6562,7 +6562,7 @@
         <v>762.6460346084982</v>
       </c>
       <c r="B766" t="n">
-        <v>688</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="767">
@@ -6570,7 +6570,7 @@
         <v>763.6442624024884</v>
       </c>
       <c r="B767" t="n">
-        <v>688</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="768">
@@ -6578,7 +6578,7 @@
         <v>764.6424901964785</v>
       </c>
       <c r="B768" t="n">
-        <v>689</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="769">
@@ -6586,7 +6586,7 @@
         <v>765.6407179904687</v>
       </c>
       <c r="B769" t="n">
-        <v>689</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="770">
@@ -6594,7 +6594,7 @@
         <v>766.6389457844589</v>
       </c>
       <c r="B770" t="n">
-        <v>689</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="771">
@@ -6602,7 +6602,7 @@
         <v>767.6371735784492</v>
       </c>
       <c r="B771" t="n">
-        <v>689</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="772">
@@ -6610,7 +6610,7 @@
         <v>768.6354013724393</v>
       </c>
       <c r="B772" t="n">
-        <v>689</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="773">
@@ -6618,7 +6618,7 @@
         <v>769.6336291664295</v>
       </c>
       <c r="B773" t="n">
-        <v>690</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="774">
@@ -6626,7 +6626,7 @@
         <v>770.6318569604197</v>
       </c>
       <c r="B774" t="n">
-        <v>690</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="775">
@@ -6634,7 +6634,7 @@
         <v>771.6300847544098</v>
       </c>
       <c r="B775" t="n">
-        <v>690</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="776">
@@ -6642,7 +6642,7 @@
         <v>772.6283125484</v>
       </c>
       <c r="B776" t="n">
-        <v>694</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="777">
@@ -6650,7 +6650,7 @@
         <v>773.6265403423902</v>
       </c>
       <c r="B777" t="n">
-        <v>696</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="778">
@@ -6658,7 +6658,7 @@
         <v>774.6247681363803</v>
       </c>
       <c r="B778" t="n">
-        <v>697</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="779">
@@ -6666,7 +6666,7 @@
         <v>775.6229959303706</v>
       </c>
       <c r="B779" t="n">
-        <v>697</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>776.6212237243608</v>
       </c>
       <c r="B780" t="n">
-        <v>697</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>777.619451518351</v>
       </c>
       <c r="B781" t="n">
-        <v>698</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>778.6176793123411</v>
       </c>
       <c r="B782" t="n">
-        <v>698</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="783">
@@ -6698,7 +6698,7 @@
         <v>779.6159071063313</v>
       </c>
       <c r="B783" t="n">
-        <v>698</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="784">
@@ -6706,7 +6706,7 @@
         <v>780.6141349003215</v>
       </c>
       <c r="B784" t="n">
-        <v>698</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>781.6123626943116</v>
       </c>
       <c r="B785" t="n">
-        <v>699</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="786">
@@ -6722,7 +6722,7 @@
         <v>782.6105904883018</v>
       </c>
       <c r="B786" t="n">
-        <v>699</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="787">
@@ -6730,7 +6730,7 @@
         <v>783.608818282292</v>
       </c>
       <c r="B787" t="n">
-        <v>699</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="788">
@@ -6738,7 +6738,7 @@
         <v>784.6070460762822</v>
       </c>
       <c r="B788" t="n">
-        <v>700</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="789">
@@ -6746,7 +6746,7 @@
         <v>785.6052738702724</v>
       </c>
       <c r="B789" t="n">
-        <v>700</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="790">
@@ -6754,7 +6754,7 @@
         <v>786.6035016642626</v>
       </c>
       <c r="B790" t="n">
-        <v>700</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>787.6017294582527</v>
       </c>
       <c r="B791" t="n">
-        <v>700</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="792">
@@ -6770,7 +6770,7 @@
         <v>788.5999572522429</v>
       </c>
       <c r="B792" t="n">
-        <v>701</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="793">
@@ -6778,7 +6778,7 @@
         <v>789.5981850462331</v>
       </c>
       <c r="B793" t="n">
-        <v>701</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="794">
@@ -6786,7 +6786,7 @@
         <v>790.5964128402233</v>
       </c>
       <c r="B794" t="n">
-        <v>702</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="795">
@@ -6794,7 +6794,7 @@
         <v>791.5946406342134</v>
       </c>
       <c r="B795" t="n">
-        <v>703</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="796">
@@ -6802,7 +6802,7 @@
         <v>792.5928684282036</v>
       </c>
       <c r="B796" t="n">
-        <v>703</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="797">
@@ -6810,7 +6810,7 @@
         <v>793.5910962221939</v>
       </c>
       <c r="B797" t="n">
-        <v>703</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="798">
@@ -6818,7 +6818,7 @@
         <v>794.589324016184</v>
       </c>
       <c r="B798" t="n">
-        <v>703</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="799">
@@ -6826,7 +6826,7 @@
         <v>795.5875518101742</v>
       </c>
       <c r="B799" t="n">
-        <v>704</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="800">
@@ -6834,7 +6834,7 @@
         <v>796.5857796041644</v>
       </c>
       <c r="B800" t="n">
-        <v>704</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="801">
@@ -6842,7 +6842,7 @@
         <v>797.5840073981545</v>
       </c>
       <c r="B801" t="n">
-        <v>704</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="802">
@@ -6850,7 +6850,7 @@
         <v>798.5822351921447</v>
       </c>
       <c r="B802" t="n">
-        <v>706</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="803">
@@ -6858,7 +6858,7 @@
         <v>799.5804629861349</v>
       </c>
       <c r="B803" t="n">
-        <v>706</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="804">
@@ -6866,7 +6866,7 @@
         <v>800.578690780125</v>
       </c>
       <c r="B804" t="n">
-        <v>706</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="805">
@@ -6874,7 +6874,7 @@
         <v>801.5769185741153</v>
       </c>
       <c r="B805" t="n">
-        <v>707</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="806">
@@ -6882,7 +6882,7 @@
         <v>802.5751463681055</v>
       </c>
       <c r="B806" t="n">
-        <v>707</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="807">
@@ -6890,7 +6890,7 @@
         <v>803.5733741620957</v>
       </c>
       <c r="B807" t="n">
-        <v>708</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="808">
@@ -6898,7 +6898,7 @@
         <v>804.5716019560858</v>
       </c>
       <c r="B808" t="n">
-        <v>708</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="809">
@@ -6906,7 +6906,7 @@
         <v>805.569829750076</v>
       </c>
       <c r="B809" t="n">
-        <v>709</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="810">
@@ -6914,7 +6914,7 @@
         <v>806.5680575440662</v>
       </c>
       <c r="B810" t="n">
-        <v>709</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="811">
@@ -6922,7 +6922,7 @@
         <v>807.5662853380563</v>
       </c>
       <c r="B811" t="n">
-        <v>710</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="812">
@@ -6930,7 +6930,7 @@
         <v>808.5645131320465</v>
       </c>
       <c r="B812" t="n">
-        <v>710</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="813">
@@ -6938,7 +6938,7 @@
         <v>809.5627409260367</v>
       </c>
       <c r="B813" t="n">
-        <v>711</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="814">
@@ -6946,7 +6946,7 @@
         <v>810.5609687200269</v>
       </c>
       <c r="B814" t="n">
-        <v>711</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="815">
@@ -6954,7 +6954,7 @@
         <v>811.5591965140171</v>
       </c>
       <c r="B815" t="n">
-        <v>712</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="816">
@@ -6962,7 +6962,7 @@
         <v>812.5574243080073</v>
       </c>
       <c r="B816" t="n">
-        <v>713</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="817">
@@ -6970,7 +6970,7 @@
         <v>813.5556521019975</v>
       </c>
       <c r="B817" t="n">
-        <v>713</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="818">
@@ -6978,7 +6978,7 @@
         <v>814.5538798959876</v>
       </c>
       <c r="B818" t="n">
-        <v>714</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="819">
@@ -6986,7 +6986,7 @@
         <v>815.5521076899778</v>
       </c>
       <c r="B819" t="n">
-        <v>714</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="820">
@@ -6994,7 +6994,7 @@
         <v>816.550335483968</v>
       </c>
       <c r="B820" t="n">
-        <v>714</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="821">
@@ -7002,7 +7002,7 @@
         <v>817.5485632779581</v>
       </c>
       <c r="B821" t="n">
-        <v>715</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="822">
@@ -7010,7 +7010,7 @@
         <v>818.5467910719483</v>
       </c>
       <c r="B822" t="n">
-        <v>715</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="823">
@@ -7018,7 +7018,7 @@
         <v>819.5450188659386</v>
       </c>
       <c r="B823" t="n">
-        <v>716</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="824">
@@ -7026,7 +7026,7 @@
         <v>820.5432466599287</v>
       </c>
       <c r="B824" t="n">
-        <v>716</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="825">
@@ -7034,7 +7034,7 @@
         <v>821.5414744539189</v>
       </c>
       <c r="B825" t="n">
-        <v>717</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="826">
@@ -7042,7 +7042,7 @@
         <v>822.5397022479091</v>
       </c>
       <c r="B826" t="n">
-        <v>717</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="827">
@@ -7050,7 +7050,7 @@
         <v>823.5379300418992</v>
       </c>
       <c r="B827" t="n">
-        <v>718</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="828">
@@ -7058,7 +7058,7 @@
         <v>824.5361578358894</v>
       </c>
       <c r="B828" t="n">
-        <v>719</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="829">
@@ -7066,7 +7066,7 @@
         <v>825.5343856298796</v>
       </c>
       <c r="B829" t="n">
-        <v>720</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="830">
@@ -7074,7 +7074,7 @@
         <v>826.5326134238697</v>
       </c>
       <c r="B830" t="n">
-        <v>720</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="831">
@@ -7082,7 +7082,7 @@
         <v>827.53084121786</v>
       </c>
       <c r="B831" t="n">
-        <v>721</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="832">
@@ -7090,7 +7090,7 @@
         <v>828.5290690118502</v>
       </c>
       <c r="B832" t="n">
-        <v>721</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="833">
@@ -7098,7 +7098,7 @@
         <v>829.5272968058404</v>
       </c>
       <c r="B833" t="n">
-        <v>721</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="834">
@@ -7106,7 +7106,7 @@
         <v>830.5255245998305</v>
       </c>
       <c r="B834" t="n">
-        <v>722</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="835">
@@ -7114,7 +7114,7 @@
         <v>831.5237523938207</v>
       </c>
       <c r="B835" t="n">
-        <v>723</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="836">
@@ -7122,7 +7122,7 @@
         <v>832.5219801878109</v>
       </c>
       <c r="B836" t="n">
-        <v>724</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="837">
@@ -7130,7 +7130,7 @@
         <v>833.520207981801</v>
       </c>
       <c r="B837" t="n">
-        <v>724</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="838">
@@ -7138,7 +7138,7 @@
         <v>834.5184357757912</v>
       </c>
       <c r="B838" t="n">
-        <v>725</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="839">
@@ -7146,7 +7146,7 @@
         <v>835.5166635697814</v>
       </c>
       <c r="B839" t="n">
-        <v>725</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="840">
@@ -7154,7 +7154,7 @@
         <v>836.5148913637717</v>
       </c>
       <c r="B840" t="n">
-        <v>726</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="841">
@@ -7162,7 +7162,7 @@
         <v>837.5131191577618</v>
       </c>
       <c r="B841" t="n">
-        <v>727</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="842">
@@ -7170,7 +7170,7 @@
         <v>838.511346951752</v>
       </c>
       <c r="B842" t="n">
-        <v>728</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="843">
@@ -7178,7 +7178,7 @@
         <v>839.5095747457422</v>
       </c>
       <c r="B843" t="n">
-        <v>729</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="844">
@@ -7186,7 +7186,7 @@
         <v>840.5078025397323</v>
       </c>
       <c r="B844" t="n">
-        <v>729</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="845">
@@ -7194,7 +7194,7 @@
         <v>841.5060303337225</v>
       </c>
       <c r="B845" t="n">
-        <v>730</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="846">
@@ -7202,7 +7202,7 @@
         <v>842.5042581277127</v>
       </c>
       <c r="B846" t="n">
-        <v>730</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="847">
@@ -7210,7 +7210,7 @@
         <v>843.5024859217028</v>
       </c>
       <c r="B847" t="n">
-        <v>731</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="848">
@@ -7218,7 +7218,7 @@
         <v>844.500713715693</v>
       </c>
       <c r="B848" t="n">
-        <v>731</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="849">
@@ -7226,7 +7226,7 @@
         <v>845.4989415096833</v>
       </c>
       <c r="B849" t="n">
-        <v>732</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="850">
@@ -7234,7 +7234,7 @@
         <v>846.4971693036734</v>
       </c>
       <c r="B850" t="n">
-        <v>732</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="851">
@@ -7242,7 +7242,7 @@
         <v>847.4953970976636</v>
       </c>
       <c r="B851" t="n">
-        <v>733</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="852">
@@ -7250,7 +7250,7 @@
         <v>848.4936248916538</v>
       </c>
       <c r="B852" t="n">
-        <v>734</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="853">
@@ -7258,7 +7258,7 @@
         <v>849.4918526856439</v>
       </c>
       <c r="B853" t="n">
-        <v>734</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="854">
@@ -7266,7 +7266,7 @@
         <v>850.4900804796341</v>
       </c>
       <c r="B854" t="n">
-        <v>734</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="855">
@@ -7274,7 +7274,7 @@
         <v>851.4883082736243</v>
       </c>
       <c r="B855" t="n">
-        <v>735</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="856">
@@ -7282,7 +7282,7 @@
         <v>852.4865360676145</v>
       </c>
       <c r="B856" t="n">
-        <v>735</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="857">
@@ -7290,7 +7290,7 @@
         <v>853.4847638616047</v>
       </c>
       <c r="B857" t="n">
-        <v>736</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="858">
@@ -7298,7 +7298,7 @@
         <v>854.4829916555949</v>
       </c>
       <c r="B858" t="n">
-        <v>738</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="859">
@@ -7306,7 +7306,7 @@
         <v>855.4812194495851</v>
       </c>
       <c r="B859" t="n">
-        <v>738</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="860">
@@ -7314,7 +7314,7 @@
         <v>856.4794472435752</v>
       </c>
       <c r="B860" t="n">
-        <v>738</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="861">
@@ -7322,7 +7322,7 @@
         <v>857.4776750375654</v>
       </c>
       <c r="B861" t="n">
-        <v>738</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>858.4759028315556</v>
       </c>
       <c r="B862" t="n">
-        <v>738</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="863">
@@ -7338,7 +7338,7 @@
         <v>859.4741306255457</v>
       </c>
       <c r="B863" t="n">
-        <v>739</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="864">
@@ -7346,7 +7346,7 @@
         <v>860.4723584195359</v>
       </c>
       <c r="B864" t="n">
-        <v>739</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="865">
@@ -7354,7 +7354,7 @@
         <v>861.4705862135261</v>
       </c>
       <c r="B865" t="n">
-        <v>739</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="866">
@@ -7362,7 +7362,7 @@
         <v>862.4688140075164</v>
       </c>
       <c r="B866" t="n">
-        <v>739</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="867">
@@ -7370,7 +7370,7 @@
         <v>863.4670418015065</v>
       </c>
       <c r="B867" t="n">
-        <v>741</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="868">
@@ -7378,7 +7378,7 @@
         <v>864.4652695954967</v>
       </c>
       <c r="B868" t="n">
-        <v>741</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="869">
@@ -7386,7 +7386,7 @@
         <v>865.4634973894869</v>
       </c>
       <c r="B869" t="n">
-        <v>742</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="870">
@@ -7394,7 +7394,7 @@
         <v>866.461725183477</v>
       </c>
       <c r="B870" t="n">
-        <v>742</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="871">
@@ -7402,7 +7402,7 @@
         <v>867.4599529774672</v>
       </c>
       <c r="B871" t="n">
-        <v>742</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="872">
@@ -7410,7 +7410,7 @@
         <v>868.4581807714574</v>
       </c>
       <c r="B872" t="n">
-        <v>743</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="873">
@@ -7418,7 +7418,7 @@
         <v>869.4564085654475</v>
       </c>
       <c r="B873" t="n">
-        <v>744</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="874">
@@ -7426,7 +7426,7 @@
         <v>870.4546363594377</v>
       </c>
       <c r="B874" t="n">
-        <v>744</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="875">
@@ -7434,7 +7434,7 @@
         <v>871.452864153428</v>
       </c>
       <c r="B875" t="n">
-        <v>745</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="876">
@@ -7442,7 +7442,7 @@
         <v>872.4510919474181</v>
       </c>
       <c r="B876" t="n">
-        <v>745</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="877">
@@ -7450,7 +7450,7 @@
         <v>873.4493197414083</v>
       </c>
       <c r="B877" t="n">
-        <v>745</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="878">
@@ -7458,7 +7458,7 @@
         <v>874.4475475353985</v>
       </c>
       <c r="B878" t="n">
-        <v>746</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="879">
@@ -7466,7 +7466,7 @@
         <v>875.4457753293887</v>
       </c>
       <c r="B879" t="n">
-        <v>746</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="880">
@@ -7474,7 +7474,7 @@
         <v>876.4440031233788</v>
       </c>
       <c r="B880" t="n">
-        <v>747</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="881">
@@ -7482,7 +7482,7 @@
         <v>877.442230917369</v>
       </c>
       <c r="B881" t="n">
-        <v>750</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="882">
@@ -7490,7 +7490,7 @@
         <v>878.4404587113592</v>
       </c>
       <c r="B882" t="n">
-        <v>750</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="883">
@@ -7498,7 +7498,7 @@
         <v>879.4386865053494</v>
       </c>
       <c r="B883" t="n">
-        <v>751</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="884">
@@ -7506,7 +7506,7 @@
         <v>880.4369142993396</v>
       </c>
       <c r="B884" t="n">
-        <v>751</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="885">
@@ -7514,7 +7514,7 @@
         <v>881.4351420933298</v>
       </c>
       <c r="B885" t="n">
-        <v>752</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="886">
@@ -7522,7 +7522,7 @@
         <v>882.4333698873199</v>
       </c>
       <c r="B886" t="n">
-        <v>753</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="887">
@@ -7530,7 +7530,7 @@
         <v>883.4315976813101</v>
       </c>
       <c r="B887" t="n">
-        <v>753</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="888">
@@ -7538,7 +7538,7 @@
         <v>884.4298254753003</v>
       </c>
       <c r="B888" t="n">
-        <v>753</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="889">
@@ -7546,7 +7546,7 @@
         <v>885.4280532692904</v>
       </c>
       <c r="B889" t="n">
-        <v>754</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="890">
@@ -7554,7 +7554,7 @@
         <v>886.4262810632806</v>
       </c>
       <c r="B890" t="n">
-        <v>754</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="891">
@@ -7562,7 +7562,7 @@
         <v>887.4245088572708</v>
       </c>
       <c r="B891" t="n">
-        <v>754</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="892">
@@ -7570,7 +7570,7 @@
         <v>888.4227366512611</v>
       </c>
       <c r="B892" t="n">
-        <v>755</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="893">
@@ -7578,7 +7578,7 @@
         <v>889.4209644452512</v>
       </c>
       <c r="B893" t="n">
-        <v>756</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="894">
@@ -7586,7 +7586,7 @@
         <v>890.4191922392414</v>
       </c>
       <c r="B894" t="n">
-        <v>756</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="895">
@@ -7594,7 +7594,7 @@
         <v>891.4174200332316</v>
       </c>
       <c r="B895" t="n">
-        <v>757</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="896">
@@ -7602,7 +7602,7 @@
         <v>892.4156478272217</v>
       </c>
       <c r="B896" t="n">
-        <v>758</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="897">
@@ -7610,7 +7610,7 @@
         <v>893.4138756212119</v>
       </c>
       <c r="B897" t="n">
-        <v>759</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="898">
@@ -7618,7 +7618,7 @@
         <v>894.4121034152021</v>
       </c>
       <c r="B898" t="n">
-        <v>760</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="899">
@@ -7626,7 +7626,7 @@
         <v>895.4103312091922</v>
       </c>
       <c r="B899" t="n">
-        <v>761</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="900">
@@ -7634,7 +7634,7 @@
         <v>896.4085590031824</v>
       </c>
       <c r="B900" t="n">
-        <v>761</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="901">
@@ -7642,7 +7642,7 @@
         <v>897.4067867971727</v>
       </c>
       <c r="B901" t="n">
-        <v>762</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="902">
@@ -7650,7 +7650,7 @@
         <v>898.4050145911629</v>
       </c>
       <c r="B902" t="n">
-        <v>762</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="903">
@@ -7658,7 +7658,7 @@
         <v>899.403242385153</v>
       </c>
       <c r="B903" t="n">
-        <v>763</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="904">
@@ -7666,7 +7666,7 @@
         <v>900.4014701791432</v>
       </c>
       <c r="B904" t="n">
-        <v>764</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="905">
@@ -7674,7 +7674,7 @@
         <v>901.3996979731334</v>
       </c>
       <c r="B905" t="n">
-        <v>765</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="906">
@@ -7682,7 +7682,7 @@
         <v>902.3979257671235</v>
       </c>
       <c r="B906" t="n">
-        <v>765</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="907">
@@ -7690,7 +7690,7 @@
         <v>903.3961535611137</v>
       </c>
       <c r="B907" t="n">
-        <v>766</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="908">
@@ -7698,7 +7698,7 @@
         <v>904.3943813551039</v>
       </c>
       <c r="B908" t="n">
-        <v>766</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="909">
@@ -7706,7 +7706,7 @@
         <v>905.3926091490941</v>
       </c>
       <c r="B909" t="n">
-        <v>766</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="910">
@@ -7714,7 +7714,7 @@
         <v>906.3908369430843</v>
       </c>
       <c r="B910" t="n">
-        <v>766</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="911">
@@ -7722,7 +7722,7 @@
         <v>907.3890647370745</v>
       </c>
       <c r="B911" t="n">
-        <v>766</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="912">
@@ -7730,7 +7730,7 @@
         <v>908.3872925310646</v>
       </c>
       <c r="B912" t="n">
-        <v>766</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="913">
@@ -7738,7 +7738,7 @@
         <v>909.3855203250548</v>
       </c>
       <c r="B913" t="n">
-        <v>766</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="914">
@@ -7746,7 +7746,7 @@
         <v>910.383748119045</v>
       </c>
       <c r="B914" t="n">
-        <v>766</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="915">
@@ -7754,7 +7754,7 @@
         <v>911.3819759130351</v>
       </c>
       <c r="B915" t="n">
-        <v>766</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="916">
@@ -7762,7 +7762,7 @@
         <v>912.3802037070253</v>
       </c>
       <c r="B916" t="n">
-        <v>766</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="917">
@@ -7770,7 +7770,7 @@
         <v>913.3784315010155</v>
       </c>
       <c r="B917" t="n">
-        <v>767</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="918">
@@ -7778,7 +7778,7 @@
         <v>914.3766592950058</v>
       </c>
       <c r="B918" t="n">
-        <v>767</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="919">
@@ -7786,7 +7786,7 @@
         <v>915.3748870889959</v>
       </c>
       <c r="B919" t="n">
-        <v>767</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="920">
@@ -7794,7 +7794,7 @@
         <v>916.3731148829861</v>
       </c>
       <c r="B920" t="n">
-        <v>767</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="921">
@@ -7802,7 +7802,7 @@
         <v>917.3713426769763</v>
       </c>
       <c r="B921" t="n">
-        <v>767</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="922">
@@ -7810,7 +7810,7 @@
         <v>918.3695704709664</v>
       </c>
       <c r="B922" t="n">
-        <v>767</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="923">
@@ -7818,7 +7818,7 @@
         <v>919.3677982649566</v>
       </c>
       <c r="B923" t="n">
-        <v>767</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="924">
@@ -7826,7 +7826,7 @@
         <v>920.3660260589468</v>
       </c>
       <c r="B924" t="n">
-        <v>767</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="925">
@@ -7834,7 +7834,7 @@
         <v>921.3642538529369</v>
       </c>
       <c r="B925" t="n">
-        <v>767</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="926">
@@ -7842,7 +7842,7 @@
         <v>922.3624816469271</v>
       </c>
       <c r="B926" t="n">
-        <v>785</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="927">
@@ -7850,7 +7850,7 @@
         <v>923.3607094409174</v>
       </c>
       <c r="B927" t="n">
-        <v>785</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="928">
@@ -7858,7 +7858,7 @@
         <v>924.3589372349076</v>
       </c>
       <c r="B928" t="n">
-        <v>785</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="929">
@@ -7866,7 +7866,7 @@
         <v>925.3571650288977</v>
       </c>
       <c r="B929" t="n">
-        <v>785</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="930">
@@ -7874,7 +7874,7 @@
         <v>926.3553928228879</v>
       </c>
       <c r="B930" t="n">
-        <v>785</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="931">
@@ -7882,7 +7882,7 @@
         <v>927.3536206168781</v>
       </c>
       <c r="B931" t="n">
-        <v>785</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="932">
@@ -7890,7 +7890,7 @@
         <v>928.3518484108682</v>
       </c>
       <c r="B932" t="n">
-        <v>786</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="933">
@@ -7898,7 +7898,7 @@
         <v>929.3500762048584</v>
       </c>
       <c r="B933" t="n">
-        <v>786</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="934">
@@ -7906,7 +7906,7 @@
         <v>930.3483039988486</v>
       </c>
       <c r="B934" t="n">
-        <v>786</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="935">
@@ -7914,7 +7914,7 @@
         <v>931.3465317928388</v>
       </c>
       <c r="B935" t="n">
-        <v>786</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="936">
@@ -7922,7 +7922,7 @@
         <v>932.344759586829</v>
       </c>
       <c r="B936" t="n">
-        <v>786</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="937">
@@ -7930,7 +7930,7 @@
         <v>933.3429873808192</v>
       </c>
       <c r="B937" t="n">
-        <v>786</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="938">
@@ -7938,7 +7938,7 @@
         <v>934.3412151748093</v>
       </c>
       <c r="B938" t="n">
-        <v>786</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="939">
@@ -7946,7 +7946,7 @@
         <v>935.3394429687995</v>
       </c>
       <c r="B939" t="n">
-        <v>786</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="940">
@@ -7954,7 +7954,7 @@
         <v>936.3376707627897</v>
       </c>
       <c r="B940" t="n">
-        <v>786</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="941">
@@ -7962,7 +7962,7 @@
         <v>937.3358985567799</v>
       </c>
       <c r="B941" t="n">
-        <v>786</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="942">
@@ -7970,7 +7970,7 @@
         <v>938.33412635077</v>
       </c>
       <c r="B942" t="n">
-        <v>786</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="943">
@@ -7978,7 +7978,7 @@
         <v>939.3323541447602</v>
       </c>
       <c r="B943" t="n">
-        <v>786</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="944">
@@ -7986,7 +7986,7 @@
         <v>940.3305819387505</v>
       </c>
       <c r="B944" t="n">
-        <v>787</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="945">
@@ -7994,7 +7994,7 @@
         <v>941.3288097327406</v>
       </c>
       <c r="B945" t="n">
-        <v>787</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="946">
@@ -8002,7 +8002,7 @@
         <v>942.3270375267308</v>
       </c>
       <c r="B946" t="n">
-        <v>787</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="947">
@@ -8010,7 +8010,7 @@
         <v>943.325265320721</v>
       </c>
       <c r="B947" t="n">
-        <v>787</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="948">
@@ -8018,7 +8018,7 @@
         <v>944.3234931147111</v>
       </c>
       <c r="B948" t="n">
-        <v>787</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="949">
@@ -8026,7 +8026,7 @@
         <v>945.3217209087013</v>
       </c>
       <c r="B949" t="n">
-        <v>787</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="950">
@@ -8034,7 +8034,7 @@
         <v>946.3199487026915</v>
       </c>
       <c r="B950" t="n">
-        <v>787</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="951">
@@ -8042,7 +8042,7 @@
         <v>947.3181764966816</v>
       </c>
       <c r="B951" t="n">
-        <v>787</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="952">
@@ -8050,7 +8050,7 @@
         <v>948.3164042906718</v>
       </c>
       <c r="B952" t="n">
-        <v>787</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="953">
@@ -8058,7 +8058,7 @@
         <v>949.3146320846621</v>
       </c>
       <c r="B953" t="n">
-        <v>787</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="954">
@@ -8066,7 +8066,7 @@
         <v>950.3128598786523</v>
       </c>
       <c r="B954" t="n">
-        <v>787</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="955">
@@ -8074,7 +8074,7 @@
         <v>951.3110876726424</v>
       </c>
       <c r="B955" t="n">
-        <v>787</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="956">
@@ -8082,7 +8082,7 @@
         <v>952.3093154666326</v>
       </c>
       <c r="B956" t="n">
-        <v>807</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="957">
@@ -8090,7 +8090,7 @@
         <v>953.3075432606228</v>
       </c>
       <c r="B957" t="n">
-        <v>808</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="958">
@@ -8098,7 +8098,7 @@
         <v>954.3057710546129</v>
       </c>
       <c r="B958" t="n">
-        <v>808</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="959">
@@ -8106,7 +8106,7 @@
         <v>955.3039988486031</v>
       </c>
       <c r="B959" t="n">
-        <v>809</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="960">
@@ -8114,7 +8114,7 @@
         <v>956.3022266425933</v>
       </c>
       <c r="B960" t="n">
-        <v>809</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="961">
@@ -8122,7 +8122,7 @@
         <v>957.3004544365835</v>
       </c>
       <c r="B961" t="n">
-        <v>809</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="962">
@@ -8130,7 +8130,7 @@
         <v>958.2986822305737</v>
       </c>
       <c r="B962" t="n">
-        <v>809</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="963">
@@ -8138,7 +8138,7 @@
         <v>959.2969100245639</v>
       </c>
       <c r="B963" t="n">
-        <v>809</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="964">
@@ -8146,7 +8146,7 @@
         <v>960.2951378185541</v>
       </c>
       <c r="B964" t="n">
-        <v>809</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="965">
@@ -8154,7 +8154,7 @@
         <v>961.2933656125442</v>
       </c>
       <c r="B965" t="n">
-        <v>810</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="966">
@@ -8162,7 +8162,7 @@
         <v>962.2915934065344</v>
       </c>
       <c r="B966" t="n">
-        <v>810</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="967">
@@ -8170,7 +8170,7 @@
         <v>963.2898212005246</v>
       </c>
       <c r="B967" t="n">
-        <v>810</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="968">
@@ -8178,7 +8178,7 @@
         <v>964.2880489945147</v>
       </c>
       <c r="B968" t="n">
-        <v>820</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="969">
@@ -8186,7 +8186,7 @@
         <v>965.2862767885049</v>
       </c>
       <c r="B969" t="n">
-        <v>830</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="970">
@@ -8194,7 +8194,7 @@
         <v>966.2845045824952</v>
       </c>
       <c r="B970" t="n">
-        <v>831</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="971">
@@ -8202,7 +8202,7 @@
         <v>967.2827323764853</v>
       </c>
       <c r="B971" t="n">
-        <v>835</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="972">
@@ -8210,7 +8210,7 @@
         <v>968.2809601704755</v>
       </c>
       <c r="B972" t="n">
-        <v>837</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="973">
@@ -8218,7 +8218,7 @@
         <v>969.2791879644657</v>
       </c>
       <c r="B973" t="n">
-        <v>837</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="974">
@@ -8226,7 +8226,7 @@
         <v>970.2774157584558</v>
       </c>
       <c r="B974" t="n">
-        <v>837</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="975">
@@ -8234,7 +8234,7 @@
         <v>971.275643552446</v>
       </c>
       <c r="B975" t="n">
-        <v>838</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="976">
@@ -8242,7 +8242,7 @@
         <v>972.2738713464362</v>
       </c>
       <c r="B976" t="n">
-        <v>838</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="977">
@@ -8250,7 +8250,7 @@
         <v>973.2720991404263</v>
       </c>
       <c r="B977" t="n">
-        <v>838</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="978">
@@ -8258,7 +8258,7 @@
         <v>974.2703269344165</v>
       </c>
       <c r="B978" t="n">
-        <v>838</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="979">
@@ -8266,7 +8266,7 @@
         <v>975.2685547284068</v>
       </c>
       <c r="B979" t="n">
-        <v>838</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="980">
@@ -8274,7 +8274,7 @@
         <v>976.266782522397</v>
       </c>
       <c r="B980" t="n">
-        <v>839</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="981">
@@ -8282,7 +8282,7 @@
         <v>977.2650103163871</v>
       </c>
       <c r="B981" t="n">
-        <v>839</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="982">
@@ -8290,7 +8290,7 @@
         <v>978.2632381103773</v>
       </c>
       <c r="B982" t="n">
-        <v>839</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="983">
@@ -8298,7 +8298,7 @@
         <v>979.2614659043675</v>
       </c>
       <c r="B983" t="n">
-        <v>841</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="984">
@@ -8306,7 +8306,7 @@
         <v>980.2596936983576</v>
       </c>
       <c r="B984" t="n">
-        <v>842</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="985">
@@ -8314,7 +8314,7 @@
         <v>981.2579214923478</v>
       </c>
       <c r="B985" t="n">
-        <v>842</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="986">
@@ -8322,7 +8322,7 @@
         <v>982.256149286338</v>
       </c>
       <c r="B986" t="n">
-        <v>849</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="987">
@@ -8330,7 +8330,7 @@
         <v>983.2543770803283</v>
       </c>
       <c r="B987" t="n">
-        <v>850</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="988">
@@ -8338,7 +8338,7 @@
         <v>984.2526048743184</v>
       </c>
       <c r="B988" t="n">
-        <v>850</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="989">
@@ -8346,7 +8346,7 @@
         <v>985.2508326683086</v>
       </c>
       <c r="B989" t="n">
-        <v>854</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="990">
@@ -8354,7 +8354,7 @@
         <v>986.2490604622988</v>
       </c>
       <c r="B990" t="n">
-        <v>854</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="991">
@@ -8362,7 +8362,7 @@
         <v>987.2472882562889</v>
       </c>
       <c r="B991" t="n">
-        <v>854</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="992">
@@ -8370,7 +8370,7 @@
         <v>988.2455160502791</v>
       </c>
       <c r="B992" t="n">
-        <v>856</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="993">
@@ -8378,7 +8378,7 @@
         <v>989.2437438442693</v>
       </c>
       <c r="B993" t="n">
-        <v>856</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="994">
@@ -8386,7 +8386,7 @@
         <v>990.2419716382594</v>
       </c>
       <c r="B994" t="n">
-        <v>856</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="995">
@@ -8394,7 +8394,7 @@
         <v>991.2401994322496</v>
       </c>
       <c r="B995" t="n">
-        <v>857</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="996">
@@ -8402,7 +8402,7 @@
         <v>992.2384272262399</v>
       </c>
       <c r="B996" t="n">
-        <v>858</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="997">
@@ -8410,7 +8410,7 @@
         <v>993.23665502023</v>
       </c>
       <c r="B997" t="n">
-        <v>858</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="998">
@@ -8418,7 +8418,7 @@
         <v>994.2348828142202</v>
       </c>
       <c r="B998" t="n">
-        <v>865</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="999">
@@ -8426,7 +8426,7 @@
         <v>995.2331106082104</v>
       </c>
       <c r="B999" t="n">
-        <v>866</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1000">
@@ -8434,7 +8434,7 @@
         <v>996.2313384022005</v>
       </c>
       <c r="B1000" t="n">
-        <v>869</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1001">
@@ -8442,7 +8442,7 @@
         <v>997.2295661961907</v>
       </c>
       <c r="B1001" t="n">
-        <v>870</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1002">
@@ -8450,7 +8450,7 @@
         <v>998.2277939901809</v>
       </c>
       <c r="B1002" t="n">
-        <v>883</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1003">
@@ -8458,7 +8458,7 @@
         <v>999.2260217841711</v>
       </c>
       <c r="B1003" t="n">
-        <v>883</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1004">
@@ -8466,7 +8466,7 @@
         <v>1000.224249578161</v>
       </c>
       <c r="B1004" t="n">
-        <v>883</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1005">
@@ -8474,7 +8474,7 @@
         <v>1001.222477372152</v>
       </c>
       <c r="B1005" t="n">
-        <v>883</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1006">
@@ -8482,7 +8482,7 @@
         <v>1002.220705166142</v>
       </c>
       <c r="B1006" t="n">
-        <v>883</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1007">
@@ -8490,7 +8490,7 @@
         <v>1003.218932960132</v>
       </c>
       <c r="B1007" t="n">
-        <v>884</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1008">
@@ -8498,7 +8498,7 @@
         <v>1004.217160754122</v>
       </c>
       <c r="B1008" t="n">
-        <v>884</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1009">
@@ -8506,7 +8506,7 @@
         <v>1005.215388548112</v>
       </c>
       <c r="B1009" t="n">
-        <v>902</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1010">
@@ -8514,7 +8514,7 @@
         <v>1006.213616342102</v>
       </c>
       <c r="B1010" t="n">
-        <v>903</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1011">
@@ -8522,7 +8522,7 @@
         <v>1007.211844136093</v>
       </c>
       <c r="B1011" t="n">
-        <v>903</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1012">
@@ -8530,7 +8530,7 @@
         <v>1008.210071930083</v>
       </c>
       <c r="B1012" t="n">
-        <v>906</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1013">
@@ -8538,7 +8538,7 @@
         <v>1009.208299724073</v>
       </c>
       <c r="B1013" t="n">
-        <v>907</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1014">
@@ -8546,7 +8546,7 @@
         <v>1010.206527518063</v>
       </c>
       <c r="B1014" t="n">
-        <v>909</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1015">
@@ -8554,7 +8554,7 @@
         <v>1011.204755312053</v>
       </c>
       <c r="B1015" t="n">
-        <v>910</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1016">
@@ -8562,7 +8562,7 @@
         <v>1012.202983106043</v>
       </c>
       <c r="B1016" t="n">
-        <v>981</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1017">
@@ -8570,7 +8570,7 @@
         <v>1013.201210900034</v>
       </c>
       <c r="B1017" t="n">
-        <v>981</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1018">
@@ -8578,7 +8578,7 @@
         <v>1014.199438694024</v>
       </c>
       <c r="B1018" t="n">
-        <v>982</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1019">
@@ -8586,7 +8586,7 @@
         <v>1015.197666488014</v>
       </c>
       <c r="B1019" t="n">
-        <v>982</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1020">
@@ -8594,7 +8594,7 @@
         <v>1016.195894282004</v>
       </c>
       <c r="B1020" t="n">
-        <v>1023</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1021">
@@ -8602,7 +8602,7 @@
         <v>1017.194122075994</v>
       </c>
       <c r="B1021" t="n">
-        <v>1023</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1022">
@@ -8610,7 +8610,7 @@
         <v>1018.192349869985</v>
       </c>
       <c r="B1022" t="n">
-        <v>1023</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1023">
@@ -8618,7 +8618,7 @@
         <v>1019.190577663975</v>
       </c>
       <c r="B1023" t="n">
-        <v>1023</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1024">
@@ -8626,7 +8626,7 @@
         <v>1020.188805457965</v>
       </c>
       <c r="B1024" t="n">
-        <v>1023</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1025">
@@ -8634,7 +8634,7 @@
         <v>1021.187033251955</v>
       </c>
       <c r="B1025" t="n">
-        <v>1023</v>
+        <v>4092</v>
       </c>
     </row>
   </sheetData>
